--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W361"/>
+  <dimension ref="A1:W366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25175,6 +25175,375 @@
         </is>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>384.6628571428572</v>
+      </c>
+      <c r="C362" t="n">
+        <v>376.7528571428572</v>
+      </c>
+      <c r="D362" t="n">
+        <v>372.37</v>
+      </c>
+      <c r="E362" t="n">
+        <v>383.0933333333333</v>
+      </c>
+      <c r="F362" t="n">
+        <v>405.32</v>
+      </c>
+      <c r="G362" t="n">
+        <v>418.29</v>
+      </c>
+      <c r="H362" t="n">
+        <v>423.17</v>
+      </c>
+      <c r="I362" t="n">
+        <v>403.1933333333333</v>
+      </c>
+      <c r="J362" t="n">
+        <v>398.94</v>
+      </c>
+      <c r="K362" t="n">
+        <v>390.14</v>
+      </c>
+      <c r="L362" t="n">
+        <v>385.3633333333333</v>
+      </c>
+      <c r="M362" t="n">
+        <v>383.43</v>
+      </c>
+      <c r="N362" t="n">
+        <v>379.09</v>
+      </c>
+      <c r="O362" t="n">
+        <v>375.6</v>
+      </c>
+      <c r="P362" t="n">
+        <v>376.07</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>367.9928571428572</v>
+      </c>
+      <c r="R362" t="n">
+        <v>365.56</v>
+      </c>
+      <c r="S362" t="n">
+        <v>362.59</v>
+      </c>
+      <c r="T362" t="n">
+        <v>373.25</v>
+      </c>
+      <c r="U362" t="n">
+        <v>363.86</v>
+      </c>
+      <c r="V362" t="n">
+        <v>361.3028571428572</v>
+      </c>
+      <c r="W362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>386.9</v>
+      </c>
+      <c r="C363" t="n">
+        <v>373.04</v>
+      </c>
+      <c r="D363" t="n">
+        <v>377.8966666666667</v>
+      </c>
+      <c r="E363" t="n">
+        <v>384.4477777777778</v>
+      </c>
+      <c r="F363" t="n">
+        <v>401.14</v>
+      </c>
+      <c r="G363" t="n">
+        <v>414.4</v>
+      </c>
+      <c r="H363" t="n">
+        <v>417.38</v>
+      </c>
+      <c r="I363" t="n">
+        <v>404.4177777777778</v>
+      </c>
+      <c r="J363" t="n">
+        <v>392.91</v>
+      </c>
+      <c r="K363" t="n">
+        <v>386.37</v>
+      </c>
+      <c r="L363" t="n">
+        <v>380.7377777777778</v>
+      </c>
+      <c r="M363" t="n">
+        <v>380.3</v>
+      </c>
+      <c r="N363" t="n">
+        <v>381.14</v>
+      </c>
+      <c r="O363" t="n">
+        <v>378.31</v>
+      </c>
+      <c r="P363" t="n">
+        <v>376.5266666666667</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>373.59</v>
+      </c>
+      <c r="R363" t="n">
+        <v>366.6366666666667</v>
+      </c>
+      <c r="S363" t="n">
+        <v>361.5966666666667</v>
+      </c>
+      <c r="T363" t="n">
+        <v>366.3266666666667</v>
+      </c>
+      <c r="U363" t="n">
+        <v>365.3766666666667</v>
+      </c>
+      <c r="V363" t="n">
+        <v>364.24</v>
+      </c>
+      <c r="W363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-08 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>382.6171428571428</v>
+      </c>
+      <c r="C364" t="n">
+        <v>377.4171428571429</v>
+      </c>
+      <c r="D364" t="n">
+        <v>376.4733333333333</v>
+      </c>
+      <c r="E364" t="n">
+        <v>380.4788888888889</v>
+      </c>
+      <c r="F364" t="n">
+        <v>396.83</v>
+      </c>
+      <c r="G364" t="n">
+        <v>417.53</v>
+      </c>
+      <c r="H364" t="n">
+        <v>423.2</v>
+      </c>
+      <c r="I364" t="n">
+        <v>409.1688888888889</v>
+      </c>
+      <c r="J364" t="n">
+        <v>400.74</v>
+      </c>
+      <c r="K364" t="n">
+        <v>391.29</v>
+      </c>
+      <c r="L364" t="n">
+        <v>382.8888888888889</v>
+      </c>
+      <c r="M364" t="n">
+        <v>380.22</v>
+      </c>
+      <c r="N364" t="n">
+        <v>381.73</v>
+      </c>
+      <c r="O364" t="n">
+        <v>377.66</v>
+      </c>
+      <c r="P364" t="n">
+        <v>375.2333333333333</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>372.7071428571429</v>
+      </c>
+      <c r="R364" t="n">
+        <v>366.3133333333333</v>
+      </c>
+      <c r="S364" t="n">
+        <v>362.5833333333333</v>
+      </c>
+      <c r="T364" t="inlineStr"/>
+      <c r="U364" t="inlineStr"/>
+      <c r="V364" t="inlineStr"/>
+      <c r="W364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>406.6928571428572</v>
+      </c>
+      <c r="C365" t="n">
+        <v>401.3528571428572</v>
+      </c>
+      <c r="D365" t="n">
+        <v>398.9966666666666</v>
+      </c>
+      <c r="E365" t="n">
+        <v>401.8811111111111</v>
+      </c>
+      <c r="F365" t="n">
+        <v>421.49</v>
+      </c>
+      <c r="G365" t="n">
+        <v>436.23</v>
+      </c>
+      <c r="H365" t="n">
+        <v>438.72</v>
+      </c>
+      <c r="I365" t="n">
+        <v>419.5111111111111</v>
+      </c>
+      <c r="J365" t="n">
+        <v>414.76</v>
+      </c>
+      <c r="K365" t="n">
+        <v>403.7</v>
+      </c>
+      <c r="L365" t="n">
+        <v>403.2111111111111</v>
+      </c>
+      <c r="M365" t="n">
+        <v>419.17</v>
+      </c>
+      <c r="N365" t="n">
+        <v>416.05</v>
+      </c>
+      <c r="O365" t="n">
+        <v>410.8</v>
+      </c>
+      <c r="P365" t="n">
+        <v>403.6066666666667</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>393.7428571428571</v>
+      </c>
+      <c r="R365" t="n">
+        <v>392.8666666666667</v>
+      </c>
+      <c r="S365" t="n">
+        <v>394.2166666666667</v>
+      </c>
+      <c r="T365" t="n">
+        <v>402.7366666666667</v>
+      </c>
+      <c r="U365" t="n">
+        <v>394.7566666666667</v>
+      </c>
+      <c r="V365" t="n">
+        <v>383.9028571428571</v>
+      </c>
+      <c r="W365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>402.0242857142857</v>
+      </c>
+      <c r="C366" t="n">
+        <v>388.6842857142857</v>
+      </c>
+      <c r="D366" t="n">
+        <v>373.4066666666667</v>
+      </c>
+      <c r="E366" t="n">
+        <v>394.3944444444445</v>
+      </c>
+      <c r="F366" t="n">
+        <v>409.05</v>
+      </c>
+      <c r="G366" t="n">
+        <v>423.28</v>
+      </c>
+      <c r="H366" t="n">
+        <v>428.37</v>
+      </c>
+      <c r="I366" t="n">
+        <v>415.0044444444445</v>
+      </c>
+      <c r="J366" t="n">
+        <v>402.16</v>
+      </c>
+      <c r="K366" t="n">
+        <v>391.58</v>
+      </c>
+      <c r="L366" t="n">
+        <v>391.5244444444445</v>
+      </c>
+      <c r="M366" t="n">
+        <v>387.7</v>
+      </c>
+      <c r="N366" t="n">
+        <v>383.76</v>
+      </c>
+      <c r="O366" t="n">
+        <v>377.71</v>
+      </c>
+      <c r="P366" t="n">
+        <v>377.3366666666667</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>375.9542857142857</v>
+      </c>
+      <c r="R366" t="n">
+        <v>367.5066666666667</v>
+      </c>
+      <c r="S366" t="n">
+        <v>369.0966666666667</v>
+      </c>
+      <c r="T366" t="n">
+        <v>376.8166666666667</v>
+      </c>
+      <c r="U366" t="n">
+        <v>368.0466666666667</v>
+      </c>
+      <c r="V366" t="n">
+        <v>367.4742857142857</v>
+      </c>
+      <c r="W366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25186,7 +25555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:B376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28904,6 +29273,56 @@
       </c>
       <c r="B371" t="n">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-01-08 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -29072,28 +29491,28 @@
         <v>0.0356</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1761137973152737</v>
+        <v>-0.191120617885166</v>
       </c>
       <c r="J2" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01568746265353949</v>
+        <v>0.01875317230416018</v>
       </c>
       <c r="M2" t="n">
-        <v>7.364843039310564</v>
+        <v>7.408763718349774</v>
       </c>
       <c r="N2" t="n">
-        <v>93.3581504771261</v>
+        <v>93.70381784127632</v>
       </c>
       <c r="O2" t="n">
-        <v>9.662202154639806</v>
+        <v>9.680073235326081</v>
       </c>
       <c r="P2" t="n">
-        <v>401.4076219106777</v>
+        <v>401.5586725116515</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -29149,28 +29568,28 @@
         <v>0.0361</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02409209621679075</v>
+        <v>0.03045788537024979</v>
       </c>
       <c r="J3" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002305610503828825</v>
+        <v>0.0003770441697534821</v>
       </c>
       <c r="M3" t="n">
-        <v>8.505132779664802</v>
+        <v>8.510979108677478</v>
       </c>
       <c r="N3" t="n">
-        <v>120.6226865641445</v>
+        <v>120.4594216941954</v>
       </c>
       <c r="O3" t="n">
-        <v>10.98283599823582</v>
+        <v>10.97540075323883</v>
       </c>
       <c r="P3" t="n">
-        <v>381.0524910128937</v>
+        <v>380.9872708188668</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -29226,28 +29645,28 @@
         <v>0.0317</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1684026922262062</v>
+        <v>0.1858899372909769</v>
       </c>
       <c r="J4" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009368555300172554</v>
+        <v>0.01166896269992512</v>
       </c>
       <c r="M4" t="n">
-        <v>9.135888984087163</v>
+        <v>9.093362247757693</v>
       </c>
       <c r="N4" t="n">
-        <v>142.7625796915376</v>
+        <v>142.3903914522559</v>
       </c>
       <c r="O4" t="n">
-        <v>11.94832957745716</v>
+        <v>11.93274450628421</v>
       </c>
       <c r="P4" t="n">
-        <v>370.5501120610358</v>
+        <v>370.3718965898823</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -29303,28 +29722,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1990833318013291</v>
+        <v>0.2054401682272425</v>
       </c>
       <c r="J5" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02052489597372398</v>
+        <v>0.02236250876318235</v>
       </c>
       <c r="M5" t="n">
-        <v>7.085542297166882</v>
+        <v>7.084015697968297</v>
       </c>
       <c r="N5" t="n">
-        <v>89.15130244400953</v>
+        <v>88.81561575319338</v>
       </c>
       <c r="O5" t="n">
-        <v>9.441996740309198</v>
+        <v>9.424203719847814</v>
       </c>
       <c r="P5" t="n">
-        <v>381.9819595457857</v>
+        <v>381.9161434752272</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -29380,28 +29799,28 @@
         <v>0.0456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.15015531266121</v>
+        <v>0.1610355800288861</v>
       </c>
       <c r="J6" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K6" t="n">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01561565283675137</v>
+        <v>0.01822634913730758</v>
       </c>
       <c r="M6" t="n">
-        <v>6.527405730381242</v>
+        <v>6.529683162714056</v>
       </c>
       <c r="N6" t="n">
-        <v>67.19024295789278</v>
+        <v>67.39888723847757</v>
       </c>
       <c r="O6" t="n">
-        <v>8.196965472532673</v>
+        <v>8.209682529700986</v>
       </c>
       <c r="P6" t="n">
-        <v>399.7804565067678</v>
+        <v>399.6679075542994</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -29457,28 +29876,28 @@
         <v>0.0427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1103723774195314</v>
+        <v>0.1220130164124561</v>
       </c>
       <c r="J7" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007357883152340983</v>
+        <v>0.009173148053038704</v>
       </c>
       <c r="M7" t="n">
-        <v>6.775533853628228</v>
+        <v>6.760318347193651</v>
       </c>
       <c r="N7" t="n">
-        <v>77.53753164714323</v>
+        <v>77.41570546005049</v>
       </c>
       <c r="O7" t="n">
-        <v>8.80553982712833</v>
+        <v>8.798619520132149</v>
       </c>
       <c r="P7" t="n">
-        <v>415.7683962671809</v>
+        <v>415.6473857129849</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -29534,28 +29953,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0003134510748198178</v>
+        <v>0.02379976225997006</v>
       </c>
       <c r="J8" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>5.541783376639131e-08</v>
+        <v>0.0003249295074678749</v>
       </c>
       <c r="M8" t="n">
-        <v>7.206689959432087</v>
+        <v>7.210005282618745</v>
       </c>
       <c r="N8" t="n">
-        <v>85.25863699230428</v>
+        <v>85.48809999804743</v>
       </c>
       <c r="O8" t="n">
-        <v>9.233560363819812</v>
+        <v>9.245977503652464</v>
       </c>
       <c r="P8" t="n">
-        <v>419.0567000240625</v>
+        <v>418.8091795634136</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29611,28 +30030,28 @@
         <v>0.0483</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07000599838041285</v>
+        <v>-0.05474353289227875</v>
       </c>
       <c r="J9" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K9" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003449376786807345</v>
+        <v>0.002159658735036207</v>
       </c>
       <c r="M9" t="n">
-        <v>6.506431196462242</v>
+        <v>6.502808378819629</v>
       </c>
       <c r="N9" t="n">
-        <v>68.32687700421265</v>
+        <v>68.15139564508179</v>
       </c>
       <c r="O9" t="n">
-        <v>8.266007319390217</v>
+        <v>8.255385856825942</v>
       </c>
       <c r="P9" t="n">
-        <v>407.5752094274455</v>
+        <v>407.4180987848619</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29688,28 +30107,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07754406838972863</v>
+        <v>-0.05128093557639676</v>
       </c>
       <c r="J10" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K10" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004148731140106832</v>
+        <v>0.001839196507548824</v>
       </c>
       <c r="M10" t="n">
-        <v>6.638115926479466</v>
+        <v>6.663401233865568</v>
       </c>
       <c r="N10" t="n">
-        <v>68.44919278172979</v>
+        <v>69.05867020767182</v>
       </c>
       <c r="O10" t="n">
-        <v>8.273402732958779</v>
+        <v>8.310154644028703</v>
       </c>
       <c r="P10" t="n">
-        <v>396.2882828482928</v>
+        <v>396.0157324688356</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29765,28 +30184,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1284924243353343</v>
+        <v>-0.1099613438888966</v>
       </c>
       <c r="J11" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K11" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01184877494008507</v>
+        <v>0.008888892184688246</v>
       </c>
       <c r="M11" t="n">
-        <v>6.37217370062836</v>
+        <v>6.353633640294852</v>
       </c>
       <c r="N11" t="n">
-        <v>65.71612869382109</v>
+        <v>65.64414990336249</v>
       </c>
       <c r="O11" t="n">
-        <v>8.106548506844396</v>
+        <v>8.102107744492324</v>
       </c>
       <c r="P11" t="n">
-        <v>390.5203614430583</v>
+        <v>390.3285162884353</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29842,28 +30261,28 @@
         <v>0.0484</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.123475046640469</v>
+        <v>-0.1088837594546682</v>
       </c>
       <c r="J12" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K12" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009574803452272351</v>
+        <v>0.007603330322194735</v>
       </c>
       <c r="M12" t="n">
-        <v>6.97762740336649</v>
+        <v>6.958275749224912</v>
       </c>
       <c r="N12" t="n">
-        <v>73.70939888674461</v>
+        <v>73.83898259062262</v>
       </c>
       <c r="O12" t="n">
-        <v>8.585417805019429</v>
+        <v>8.592961223619168</v>
       </c>
       <c r="P12" t="n">
-        <v>387.7344105967525</v>
+        <v>387.5818900417931</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29919,28 +30338,28 @@
         <v>0.0302</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09296132117030685</v>
+        <v>-0.07663057103148396</v>
       </c>
       <c r="J13" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K13" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00284770986079208</v>
+        <v>0.001953795889454768</v>
       </c>
       <c r="M13" t="n">
-        <v>9.229813806634054</v>
+        <v>9.231255272014289</v>
       </c>
       <c r="N13" t="n">
-        <v>141.4873484969168</v>
+        <v>143.0828407311487</v>
       </c>
       <c r="O13" t="n">
-        <v>11.89484545914392</v>
+        <v>11.96172398658106</v>
       </c>
       <c r="P13" t="n">
-        <v>387.8887579509312</v>
+        <v>387.7166345169235</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29996,28 +30415,28 @@
         <v>0.0255</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1276553397471472</v>
+        <v>-0.1090401781670615</v>
       </c>
       <c r="J14" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K14" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004963027824618549</v>
+        <v>0.003670728482698782</v>
       </c>
       <c r="M14" t="n">
-        <v>9.67138835437888</v>
+        <v>9.642480294248836</v>
       </c>
       <c r="N14" t="n">
-        <v>151.3921201406218</v>
+        <v>152.5241503460383</v>
       </c>
       <c r="O14" t="n">
-        <v>12.30415052494977</v>
+        <v>12.35006681544834</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2460262049416</v>
+        <v>386.0489716310956</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -30073,28 +30492,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1763542626430036</v>
+        <v>-0.1442006078779329</v>
       </c>
       <c r="J15" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K15" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009760658384036835</v>
+        <v>0.006598398855598098</v>
       </c>
       <c r="M15" t="n">
-        <v>9.475921789945991</v>
+        <v>9.455141293600812</v>
       </c>
       <c r="N15" t="n">
-        <v>147.6317636399988</v>
+        <v>149.4745606914117</v>
       </c>
       <c r="O15" t="n">
-        <v>12.15038121377263</v>
+        <v>12.22597892568982</v>
       </c>
       <c r="P15" t="n">
-        <v>379.4341048562104</v>
+        <v>379.0963901909107</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -30150,28 +30569,28 @@
         <v>0.0305</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.09604280268437934</v>
+        <v>-0.06429551819195331</v>
       </c>
       <c r="J16" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K16" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003241989787835742</v>
+        <v>0.001473406613438422</v>
       </c>
       <c r="M16" t="n">
-        <v>9.021019437507388</v>
+        <v>9.019784596825863</v>
       </c>
       <c r="N16" t="n">
-        <v>133.9979902382784</v>
+        <v>135.0544521626957</v>
       </c>
       <c r="O16" t="n">
-        <v>11.57575009398002</v>
+        <v>11.62129305037506</v>
       </c>
       <c r="P16" t="n">
-        <v>375.1195231231746</v>
+        <v>374.7884746874148</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -30227,28 +30646,28 @@
         <v>0.0359</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0683762628665097</v>
+        <v>-0.03255585508658695</v>
       </c>
       <c r="J17" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K17" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001811692253373853</v>
+        <v>0.000417667789199383</v>
       </c>
       <c r="M17" t="n">
-        <v>8.602786382389967</v>
+        <v>8.62401215960741</v>
       </c>
       <c r="N17" t="n">
-        <v>122.4865185749078</v>
+        <v>123.3184609124774</v>
       </c>
       <c r="O17" t="n">
-        <v>11.06736276512647</v>
+        <v>11.1048845519653</v>
       </c>
       <c r="P17" t="n">
-        <v>368.5561515713186</v>
+        <v>368.1901962448139</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -30304,28 +30723,28 @@
         <v>0.0304</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1159252029473447</v>
+        <v>-0.07960849677328713</v>
       </c>
       <c r="J18" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K18" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006413337603702551</v>
+        <v>0.003048954959756656</v>
       </c>
       <c r="M18" t="n">
-        <v>7.877284180199945</v>
+        <v>7.912150903397064</v>
       </c>
       <c r="N18" t="n">
-        <v>99.12417450519824</v>
+        <v>100.9199693946949</v>
       </c>
       <c r="O18" t="n">
-        <v>9.956112419272808</v>
+        <v>10.04589316062514</v>
       </c>
       <c r="P18" t="n">
-        <v>364.6929156622404</v>
+        <v>364.3232603961313</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -30381,28 +30800,28 @@
         <v>0.0303</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1895723297839613</v>
+        <v>-0.1613603313968569</v>
       </c>
       <c r="J19" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K19" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01375647740739061</v>
+        <v>0.0100990299186694</v>
       </c>
       <c r="M19" t="n">
-        <v>8.716023245700468</v>
+        <v>8.701990373859031</v>
       </c>
       <c r="N19" t="n">
-        <v>120.9572662293098</v>
+        <v>122.4590255316692</v>
       </c>
       <c r="O19" t="n">
-        <v>10.99805738434337</v>
+        <v>11.06612061797942</v>
       </c>
       <c r="P19" t="n">
-        <v>366.7941222599802</v>
+        <v>366.5038845430596</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -30458,28 +30877,28 @@
         <v>0.031</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2474587054487488</v>
+        <v>-0.2138401702418397</v>
       </c>
       <c r="J20" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K20" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02171842550507497</v>
+        <v>0.01627407268666081</v>
       </c>
       <c r="M20" t="n">
-        <v>9.039359440467425</v>
+        <v>9.084989998167995</v>
       </c>
       <c r="N20" t="n">
-        <v>130.0049587422077</v>
+        <v>132.5370324929097</v>
       </c>
       <c r="O20" t="n">
-        <v>11.40197170414871</v>
+        <v>11.51247290954075</v>
       </c>
       <c r="P20" t="n">
-        <v>374.0713251092256</v>
+        <v>373.724989419527</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -30535,28 +30954,28 @@
         <v>0.0308</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2293648993437798</v>
+        <v>-0.1958042392117519</v>
       </c>
       <c r="J21" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K21" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01925702124294992</v>
+        <v>0.01413820205373373</v>
       </c>
       <c r="M21" t="n">
-        <v>8.865296754385204</v>
+        <v>8.896853991917538</v>
       </c>
       <c r="N21" t="n">
-        <v>125.0561060165609</v>
+        <v>127.1565204120482</v>
       </c>
       <c r="O21" t="n">
-        <v>11.18284874334625</v>
+        <v>11.27637000155849</v>
       </c>
       <c r="P21" t="n">
-        <v>367.188336736652</v>
+        <v>366.8462932030644</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -30612,28 +31031,28 @@
         <v>0.0357</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2105554427150205</v>
+        <v>-0.1867609533740383</v>
       </c>
       <c r="J22" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K22" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L22" t="n">
-        <v>0.021308691281132</v>
+        <v>0.01703814514300439</v>
       </c>
       <c r="M22" t="n">
-        <v>7.777522842146801</v>
+        <v>7.782543898215633</v>
       </c>
       <c r="N22" t="n">
-        <v>96.71637046675271</v>
+        <v>97.31538104161858</v>
       </c>
       <c r="O22" t="n">
-        <v>9.834448152629243</v>
+        <v>9.864855855085699</v>
       </c>
       <c r="P22" t="n">
-        <v>366.2546326206675</v>
+        <v>366.0122287532056</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -30670,7 +31089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W361"/>
+  <dimension ref="A1:W366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68159,6 +68578,579 @@
         </is>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-37.61824224100722,177.9441160372985</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-37.61811925714031,177.94500842073774</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-37.61796603232501,177.94588877798583</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-37.61768329367456,177.94671762498157</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-37.61730193122809,177.94750724530638</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-37.617009957949605,177.94829578025147</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>-37.61675330015587,177.948999186325</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>-37.61653966181933,177.94981468643104</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>-37.61617602172897,177.95059019720688</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>-37.61584557743601,177.95139570731791</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>-37.61548575365182,177.95217467127705</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>-37.61511620059376,177.95292011979916</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>-37.614689738973226,177.95359961839316</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>-37.61420095781716,177.95424282801392</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>-37.61368613147549,177.95485509520375</t>
+        </is>
+      </c>
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>-37.61319753152091,177.95550505785965</t>
+        </is>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>-37.612643358766995,177.95606533870955</t>
+        </is>
+      </c>
+      <c r="S362" t="inlineStr">
+        <is>
+          <t>-37.612089717979906,177.95663185754756</t>
+        </is>
+      </c>
+      <c r="T362" t="inlineStr">
+        <is>
+          <t>-37.61147479677721,177.95704996359837</t>
+        </is>
+      </c>
+      <c r="U362" t="inlineStr">
+        <is>
+          <t>-37.61086539489868,177.95749789226286</t>
+        </is>
+      </c>
+      <c r="V362" t="inlineStr">
+        <is>
+          <t>-37.61021962441853,177.9578787220306</t>
+        </is>
+      </c>
+      <c r="W362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-37.61822306067377,177.94410840921458</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-37.61815108954372,177.94502108085743</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-37.6179186492427,177.94586993284386</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-37.61767168132371,177.94671300646016</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-37.61733776844197,177.9475214988368</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-37.6170427203337,177.94831118927132</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>-37.616798553266136,177.9490315555364</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>-37.61653072127593,177.94980660747976</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>-37.61622005086001,177.95062998356917</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>-37.61587310464183,177.9514205820992</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>-37.61551952766956,177.9522051911417</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>-37.6151378261527,177.95294276607132</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>-37.61467697650278,177.9535828966737</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>-37.61418479603496,177.95421990035007</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>-37.613683490629576,177.95485114207423</t>
+        </is>
+      </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>-37.613167472328946,177.95545431103727</t>
+        </is>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>-37.61263782660339,177.95605535078352</t>
+        </is>
+      </c>
+      <c r="S363" t="inlineStr">
+        <is>
+          <t>-37.61209475638241,177.95664112918936</t>
+        </is>
+      </c>
+      <c r="T363" t="inlineStr">
+        <is>
+          <t>-37.611503542790565,177.9571193807668</t>
+        </is>
+      </c>
+      <c r="U363" t="inlineStr">
+        <is>
+          <t>-37.610860465863624,177.95748190732948</t>
+        </is>
+      </c>
+      <c r="V363" t="inlineStr">
+        <is>
+          <t>-37.610210079013186,177.95784776622088</t>
+        </is>
+      </c>
+      <c r="W363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-08 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-37.61825978011092,177.94412301266394</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-37.618113561846656,177.94500615565414</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-37.61793085224447,177.94587478620414</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-37.617705708654476,177.9467265399828</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-37.61737472020739,177.9475361956751</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-37.61701635882695,177.94829879075292</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>-37.61675306568375,177.94899901860902</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>-37.616496030013785,177.9497752594083</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>-37.616162878701466,177.9505783206902</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>-37.615837180541675,177.9513881195237</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>-37.61550382108941,177.95219099789819</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>-37.61513837888256,177.95294334488997</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>-37.61467330340101,177.95357808408235</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>-37.61418867247767,177.95422539960435</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>-37.6136909698132,177.95486233779945</t>
+        </is>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>-37.613172213673266,177.95546231551043</t>
+        </is>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>-37.61263948796532,177.95605835025344</t>
+        </is>
+      </c>
+      <c r="S364" t="inlineStr">
+        <is>
+          <t>-37.61208975179469,177.95663191977332</t>
+        </is>
+      </c>
+      <c r="T364" t="inlineStr"/>
+      <c r="U364" t="inlineStr"/>
+      <c r="V364" t="inlineStr"/>
+      <c r="W364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-37.61805336490412,177.94404092083627</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-37.61790834750831,177.9449245398378</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-37.61773774756202,177.94579798511398</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-37.61752221633837,177.94665356066523</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-37.61716329776872,177.94745210679488</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-37.61685886352118,177.94822471673922</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>-37.616631765405224,177.9489122536743</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>-37.616420514011864,177.9497070210071</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>-37.6160605090688,177.95048581596967</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>-37.6157465670599,177.95130623743938</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>-37.61535543598725,177.9520569101742</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>-37.61486926811352,177.9526615336026</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>-37.614459640539046,177.95329813890527</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>-37.61399103315586,177.9539450229637</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>-37.61352689012034,177.95461672487318</t>
+        </is>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>-37.613059242152815,177.9552715943127</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>-37.61250305047046,177.95581202308617</t>
+        </is>
+      </c>
+      <c r="S365" t="inlineStr">
+        <is>
+          <t>-37.61192930022409,177.9563366590621</t>
+        </is>
+      </c>
+      <c r="T365" t="inlineStr">
+        <is>
+          <t>-37.61135236621443,177.9567543145367</t>
+        </is>
+      </c>
+      <c r="U365" t="inlineStr">
+        <is>
+          <t>-37.61076498295392,177.957172256712</t>
+        </is>
+      </c>
+      <c r="V365" t="inlineStr">
+        <is>
+          <t>-37.610146176570815,177.95764053111128</t>
+        </is>
+      </c>
+      <c r="W365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-37.61809339131009,177.94405683939183</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-37.61801696230667,177.94496773697296</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-37.617957144425134,177.9458852430989</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-37.61758640341078,177.94667908936177</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-37.61726995208507,177.94749452626</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-37.616967931133594,177.94827601394715</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>-37.61671265831956,177.94897011556606</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>-37.61645342043226,177.94973675615879</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>-37.61615251031206,177.95056895144123</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>-37.615835063063884,177.95138620608023</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>-37.61544076758573,177.95213401971213</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>-37.61508669862454,177.95288922538555</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>-37.614660665438905,177.9535615255089</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>-37.61418837428978,177.95422497658475</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>-37.61367880650106,177.9548441303196</t>
+        </is>
+      </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>-37.61315477503643,177.95543287511484</t>
+        </is>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>-37.61263335634046,177.95604728004562</t>
+        </is>
+      </c>
+      <c r="S366" t="inlineStr">
+        <is>
+          <t>-37.61205671473241,177.95657112521226</t>
+        </is>
+      </c>
+      <c r="T366" t="inlineStr">
+        <is>
+          <t>-37.61145998778794,177.95701420224572</t>
+        </is>
+      </c>
+      <c r="U366" t="inlineStr">
+        <is>
+          <t>-37.61085178858968,177.95745376682507</t>
+        </is>
+      </c>
+      <c r="V366" t="inlineStr">
+        <is>
+          <t>-37.610199567914705,177.95781367870327</t>
+        </is>
+      </c>
+      <c r="W366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -29336,7 +29336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29427,35 +29427,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -29514,27 +29519,28 @@
       <c r="P2" t="n">
         <v>401.5586725116515</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (177.94542770501238 -37.62154016846142, 177.94230330534168 -37.61368390509737)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>177.9454277050124</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.62154016846142</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>177.9423033053417</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.61368390509737</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>177.943865505177</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.61761203677939</v>
       </c>
     </row>
@@ -29591,27 +29597,28 @@
       <c r="P3" t="n">
         <v>380.9872708188668</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (177.94629313686085 -37.621349358953324, 177.9431686864196 -37.61349310817832)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>177.9462931368608</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.62134935895332</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>177.9431686864196</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.61349310817832</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>177.9447309116402</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.61742123356582</v>
       </c>
     </row>
@@ -29668,27 +29675,28 @@
       <c r="P4" t="n">
         <v>370.3718965898823</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (177.947158568709 -37.62115854895519, 177.94403406749825 -37.61330231077032)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>177.947158568709</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.62115854895519</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>177.9440340674983</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.61330231077032</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>177.9455963181036</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.61723042986276</v>
       </c>
     </row>
@@ -29745,27 +29753,28 @@
       <c r="P5" t="n">
         <v>381.9161434752272</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (177.94802400055656 -37.62096773846702, 177.94489944857787 -37.61311151287338)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>177.9480240005566</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.62096773846702</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>177.9448994485779</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.61311151287338</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>177.9464617245672</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.6170396256702</v>
       </c>
     </row>
@@ -29822,27 +29831,28 @@
       <c r="P6" t="n">
         <v>399.6679075542994</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (177.9488894324037 -37.62077692748886, 177.9457648296584 -37.61292071448742)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>177.9488894324037</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.62077692748886</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>177.9457648296584</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.61292071448742</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>177.947327131031</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.61684882098814</v>
       </c>
     </row>
@@ -29899,27 +29909,28 @@
       <c r="P7" t="n">
         <v>415.6473857129849</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (177.9499527911792 -37.62053286506991, 177.94632288491798 -37.61281493444587)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>177.9499527911792</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.62053286506991</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>177.946322884918</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.61281493444587</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>177.9481378380486</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.61667389975789</v>
       </c>
     </row>
@@ -29976,27 +29987,28 @@
       <c r="P8" t="n">
         <v>418.8091795634136</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (177.95136504335167 -37.62006065366851, 177.94624115228874 -37.612897230534145)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>177.9513650433517</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.62006065366851</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>177.9462411522887</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.61289723053414</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>177.9488030978202</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.61647894210132</v>
       </c>
     </row>
@@ -30053,27 +30065,28 @@
       <c r="P9" t="n">
         <v>407.4180987848619</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (177.9524750869144 -37.61948362616403, 177.9464269469073 -37.612790375798)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>177.9524750869144</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.61948362616403</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>177.9464269469073</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.612790375798</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>177.9494510169109</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.61613700098101</v>
       </c>
     </row>
@@ -30130,27 +30143,28 @@
       <c r="P10" t="n">
         <v>396.0157324688356</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (177.9532225359169 -37.61908891731994, 177.9471743793889 -37.612395681556585)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>177.9532225359169</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.61908891731994</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>177.9471743793889</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.61239568155658</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>177.9501984576529</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.61574229943827</v>
       </c>
     </row>
@@ -30207,27 +30221,28 @@
       <c r="P11" t="n">
         <v>390.3285162884353</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (177.9539699849189 -37.618694206380475, 177.94792181187154 -37.6120009852202)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>177.9539699849189</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.61869420638048</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>177.9479218118715</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.6120009852202</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>177.9509458983952</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.61534759580034</v>
       </c>
     </row>
@@ -30284,27 +30299,28 @@
       <c r="P12" t="n">
         <v>387.5818900417931</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (177.95471743392042 -37.61829949334562, 177.94866924435507 -37.611606286788884)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>177.9547174339204</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.61829949334562</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>177.9486692443551</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.61160628678888</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>177.9516933391378</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.61495289006725</v>
       </c>
     </row>
@@ -30361,27 +30377,28 @@
       <c r="P13" t="n">
         <v>387.7166345169235</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (177.95569442400182 -37.61776532631284, 177.94906152218184 -37.6114312529375)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>177.9556944240018</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.61776532631284</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>177.9490615221818</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.6114312529375</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>177.9523779730918</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.61459828962517</v>
       </c>
     </row>
@@ -30438,27 +30455,28 @@
       <c r="P14" t="n">
         <v>386.0489716310956</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (177.95669192974543 -37.617049751709956, 177.9492128178042 -37.611341367796484)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>177.9566919297454</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.61704975170996</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>177.9492128178042</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.61134136779648</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>177.9529523737748</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.61419555975322</v>
       </c>
     </row>
@@ -30515,27 +30533,28 @@
       <c r="P15" t="n">
         <v>379.0963901909107</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (177.9574206468891 -37.61644089466109, 177.94966282670106 -37.61097225909076)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>177.9574206468891</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.61644089466109</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>177.9496628267011</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.61097225909076</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>177.9535417367951</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.61370657687593</v>
       </c>
     </row>
@@ -30592,27 +30611,28 @@
       <c r="P16" t="n">
         <v>374.7884746874148</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (177.95811063453965 -37.61586084482702, 177.9501726744596 -37.6105578531889)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>177.9581106345397</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.61586084482702</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>177.9501726744596</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.6105578531889</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>177.9541416544996</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.61320934900796</v>
       </c>
     </row>
@@ -30669,27 +30689,28 @@
       <c r="P17" t="n">
         <v>368.1901962448139</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (177.95884157424848 -37.615173765131786, 177.95052686170055 -37.61024853312136)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>177.9588415742485</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.61517376513179</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>177.9505268617006</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.61024853312136</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>177.9546842179745</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.61271114912657</v>
       </c>
     </row>
@@ -30746,27 +30767,28 @@
       <c r="P18" t="n">
         <v>364.3232603961313</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (177.9594566164785 -37.61452163565161, 177.95094877543957 -37.609809140780065)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>177.9594566164785</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-37.61452163565161</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>177.9509487754396</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-37.60980914078007</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>177.955202695959</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-37.61216538821584</v>
       </c>
     </row>
@@ -30823,27 +30845,28 @@
       <c r="P19" t="n">
         <v>366.5038845430596</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (177.96001630522153 -37.613928798532434, 177.95145591907644 -37.609276774165245)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>177.9600163052215</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-37.61392879853243</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>177.9514559190764</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-37.60927677416525</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>177.955736112149</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-37.61160278634884</v>
       </c>
     </row>
@@ -30900,27 +30923,28 @@
       <c r="P20" t="n">
         <v>373.724989419527</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (177.96079244631176 -37.61302448468967, 177.9515952839608 -37.609215779732956)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>177.9607924463118</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-37.61302448468967</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>177.9515952839608</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-37.60921577973296</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>177.9561938651363</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-37.61112013221131</v>
       </c>
     </row>
@@ -30977,27 +31001,28 @@
       <c r="P21" t="n">
         <v>366.8462932030644</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (177.96133285603094 -37.61204784104619, 177.95166391225024 -37.60906626384604)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>177.9613328560309</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-37.61204784104619</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>177.9516639122502</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-37.60906626384604</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>177.9564983841406</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-37.61055705244611</v>
       </c>
     </row>
@@ -31054,27 +31079,28 @@
       <c r="P22" t="n">
         <v>366.0122287532056</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (177.96168670271004 -37.61139375410637, 177.95201781006284 -37.60841218276181)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>177.96168670271</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-37.61139375410637</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>177.9520178100628</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-37.60841218276181</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>177.9568522563864</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-37.60990296843409</v>
       </c>
     </row>

--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W366"/>
+  <dimension ref="A1:W368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25544,6 +25544,156 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>396.8928571428572</v>
+      </c>
+      <c r="C367" t="n">
+        <v>384.6628571428572</v>
+      </c>
+      <c r="D367" t="n">
+        <v>385.5466666666667</v>
+      </c>
+      <c r="E367" t="n">
+        <v>393.5077777777778</v>
+      </c>
+      <c r="F367" t="n">
+        <v>413.9</v>
+      </c>
+      <c r="G367" t="n">
+        <v>428.39</v>
+      </c>
+      <c r="H367" t="n">
+        <v>425.63</v>
+      </c>
+      <c r="I367" t="n">
+        <v>410.9877777777778</v>
+      </c>
+      <c r="J367" t="n">
+        <v>398.11</v>
+      </c>
+      <c r="K367" t="n">
+        <v>395.79</v>
+      </c>
+      <c r="L367" t="n">
+        <v>395.3477777777778</v>
+      </c>
+      <c r="M367" t="n">
+        <v>405.78</v>
+      </c>
+      <c r="N367" t="n">
+        <v>402.29</v>
+      </c>
+      <c r="O367" t="n">
+        <v>396.48</v>
+      </c>
+      <c r="P367" t="n">
+        <v>391.3766666666667</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>379.6428571428572</v>
+      </c>
+      <c r="R367" t="n">
+        <v>379.6366666666667</v>
+      </c>
+      <c r="S367" t="n">
+        <v>381.2066666666667</v>
+      </c>
+      <c r="T367" t="n">
+        <v>389.1666666666667</v>
+      </c>
+      <c r="U367" t="n">
+        <v>383.3966666666667</v>
+      </c>
+      <c r="V367" t="n">
+        <v>371.7628571428572</v>
+      </c>
+      <c r="W367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:19+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>394.9028571428572</v>
+      </c>
+      <c r="C368" t="n">
+        <v>388.8028571428572</v>
+      </c>
+      <c r="D368" t="n">
+        <v>387.1066666666667</v>
+      </c>
+      <c r="E368" t="n">
+        <v>398.4244444444445</v>
+      </c>
+      <c r="F368" t="n">
+        <v>419.7</v>
+      </c>
+      <c r="G368" t="n">
+        <v>433.33</v>
+      </c>
+      <c r="H368" t="n">
+        <v>437.84</v>
+      </c>
+      <c r="I368" t="n">
+        <v>419.7444444444445</v>
+      </c>
+      <c r="J368" t="n">
+        <v>409.6</v>
+      </c>
+      <c r="K368" t="n">
+        <v>402.86</v>
+      </c>
+      <c r="L368" t="n">
+        <v>399.6044444444445</v>
+      </c>
+      <c r="M368" t="n">
+        <v>404.93</v>
+      </c>
+      <c r="N368" t="n">
+        <v>403.22</v>
+      </c>
+      <c r="O368" t="n">
+        <v>396.26</v>
+      </c>
+      <c r="P368" t="n">
+        <v>389.4866666666667</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>386.3328571428572</v>
+      </c>
+      <c r="R368" t="n">
+        <v>378.7666666666667</v>
+      </c>
+      <c r="S368" t="n">
+        <v>379.4866666666667</v>
+      </c>
+      <c r="T368" t="n">
+        <v>385.6066666666667</v>
+      </c>
+      <c r="U368" t="n">
+        <v>375.5566666666667</v>
+      </c>
+      <c r="V368" t="n">
+        <v>368.5928571428572</v>
+      </c>
+      <c r="W368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25555,7 +25705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B376"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29323,6 +29473,26 @@
       </c>
       <c r="B376" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -29496,28 +29666,28 @@
         <v>0.0356</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.191120617885166</v>
+        <v>-0.1922165006272266</v>
       </c>
       <c r="J2" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01875317230416018</v>
+        <v>0.01924234995225471</v>
       </c>
       <c r="M2" t="n">
-        <v>7.408763718349774</v>
+        <v>7.367465330963184</v>
       </c>
       <c r="N2" t="n">
-        <v>93.70381784127632</v>
+        <v>93.11333758211137</v>
       </c>
       <c r="O2" t="n">
-        <v>9.680073235326081</v>
+        <v>9.649525251643801</v>
       </c>
       <c r="P2" t="n">
-        <v>401.5586725116515</v>
+        <v>401.569857404695</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29574,28 +29744,28 @@
         <v>0.0361</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03045788537024979</v>
+        <v>0.03733023049289475</v>
       </c>
       <c r="J3" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003770441697534821</v>
+        <v>0.0005739052000797162</v>
       </c>
       <c r="M3" t="n">
-        <v>8.510979108677478</v>
+        <v>8.487468651260977</v>
       </c>
       <c r="N3" t="n">
-        <v>120.4594216941954</v>
+        <v>119.8696399545418</v>
       </c>
       <c r="O3" t="n">
-        <v>10.97540075323883</v>
+        <v>10.94849943848662</v>
       </c>
       <c r="P3" t="n">
-        <v>380.9872708188668</v>
+        <v>380.917130861547</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29652,28 +29822,28 @@
         <v>0.0317</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1858899372909769</v>
+        <v>0.2014000468746489</v>
       </c>
       <c r="J4" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K4" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01166896269992512</v>
+        <v>0.01379572395536188</v>
       </c>
       <c r="M4" t="n">
-        <v>9.093362247757693</v>
+        <v>9.105571126935478</v>
       </c>
       <c r="N4" t="n">
-        <v>142.3903914522559</v>
+        <v>142.2714843820184</v>
       </c>
       <c r="O4" t="n">
-        <v>11.93274450628421</v>
+        <v>11.9277610800191</v>
       </c>
       <c r="P4" t="n">
-        <v>370.3718965898823</v>
+        <v>370.2129536180853</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29730,28 +29900,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2054401682272425</v>
+        <v>0.2173548027064368</v>
       </c>
       <c r="J5" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K5" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02236250876318235</v>
+        <v>0.02517717656231766</v>
       </c>
       <c r="M5" t="n">
-        <v>7.084015697968297</v>
+        <v>7.093114086316334</v>
       </c>
       <c r="N5" t="n">
-        <v>88.81561575319338</v>
+        <v>88.77399525366815</v>
       </c>
       <c r="O5" t="n">
-        <v>9.424203719847814</v>
+        <v>9.421995290471553</v>
       </c>
       <c r="P5" t="n">
-        <v>381.9161434752272</v>
+        <v>381.7929910004913</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29808,28 +29978,28 @@
         <v>0.0456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1610355800288861</v>
+        <v>0.1786131099366242</v>
       </c>
       <c r="J6" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K6" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01822634913730758</v>
+        <v>0.0222867602043082</v>
       </c>
       <c r="M6" t="n">
-        <v>6.529683162714056</v>
+        <v>6.565551069512643</v>
       </c>
       <c r="N6" t="n">
-        <v>67.39888723847757</v>
+        <v>68.07133452262472</v>
       </c>
       <c r="O6" t="n">
-        <v>8.209682529700986</v>
+        <v>8.250535408240166</v>
       </c>
       <c r="P6" t="n">
-        <v>399.6679075542994</v>
+        <v>399.4854934988903</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29886,28 +30056,28 @@
         <v>0.0427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1220130164124561</v>
+        <v>0.1384616784573103</v>
       </c>
       <c r="J7" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009173148053038704</v>
+        <v>0.01180557466268006</v>
       </c>
       <c r="M7" t="n">
-        <v>6.760318347193651</v>
+        <v>6.800522384332951</v>
       </c>
       <c r="N7" t="n">
-        <v>77.41570546005049</v>
+        <v>77.87383886161049</v>
       </c>
       <c r="O7" t="n">
-        <v>8.798619520132149</v>
+        <v>8.82461550786268</v>
       </c>
       <c r="P7" t="n">
-        <v>415.6473857129849</v>
+        <v>415.4757961019318</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29964,28 +30134,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02379976225997006</v>
+        <v>0.04036467640007837</v>
       </c>
       <c r="J8" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K8" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003249295074678749</v>
+        <v>0.0009343880936660831</v>
       </c>
       <c r="M8" t="n">
-        <v>7.210005282618745</v>
+        <v>7.241032033680898</v>
       </c>
       <c r="N8" t="n">
-        <v>85.48809999804743</v>
+        <v>86.12785947027665</v>
       </c>
       <c r="O8" t="n">
-        <v>9.245977503652464</v>
+        <v>9.280509655739637</v>
       </c>
       <c r="P8" t="n">
-        <v>418.8091795634136</v>
+        <v>418.6381262933727</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30042,28 +30212,28 @@
         <v>0.0483</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05474353289227875</v>
+        <v>-0.04208572039594144</v>
       </c>
       <c r="J9" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K9" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002159658735036207</v>
+        <v>0.001282979826776942</v>
       </c>
       <c r="M9" t="n">
-        <v>6.502808378819629</v>
+        <v>6.523147636532615</v>
       </c>
       <c r="N9" t="n">
-        <v>68.15139564508179</v>
+        <v>68.38786623093679</v>
       </c>
       <c r="O9" t="n">
-        <v>8.255385856825942</v>
+        <v>8.269695655278785</v>
       </c>
       <c r="P9" t="n">
-        <v>407.4180987848619</v>
+        <v>407.2872204263442</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30120,28 +30290,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05128093557639676</v>
+        <v>-0.03868317617255519</v>
       </c>
       <c r="J10" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K10" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001839196507548824</v>
+        <v>0.001051121908760111</v>
       </c>
       <c r="M10" t="n">
-        <v>6.663401233865568</v>
+        <v>6.680981456247347</v>
       </c>
       <c r="N10" t="n">
-        <v>69.05867020767182</v>
+        <v>69.35660419043782</v>
       </c>
       <c r="O10" t="n">
-        <v>8.310154644028703</v>
+        <v>8.328061250401429</v>
       </c>
       <c r="P10" t="n">
-        <v>396.0157324688356</v>
+        <v>395.8841465078553</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30198,28 +30368,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1099613438888966</v>
+        <v>-0.09373539458696428</v>
       </c>
       <c r="J11" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K11" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008888892184688246</v>
+        <v>0.006472052011367246</v>
       </c>
       <c r="M11" t="n">
-        <v>6.353633640294852</v>
+        <v>6.383890536850579</v>
       </c>
       <c r="N11" t="n">
-        <v>65.64414990336249</v>
+        <v>66.18794763114917</v>
       </c>
       <c r="O11" t="n">
-        <v>8.102107744492324</v>
+        <v>8.13559755833271</v>
       </c>
       <c r="P11" t="n">
-        <v>390.3285162884353</v>
+        <v>390.1595082958373</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30276,28 +30446,28 @@
         <v>0.0484</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1088837594546682</v>
+        <v>-0.09123996210229864</v>
       </c>
       <c r="J12" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K12" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007603330322194735</v>
+        <v>0.005353282707027507</v>
       </c>
       <c r="M12" t="n">
-        <v>6.958275749224912</v>
+        <v>6.983251104709435</v>
       </c>
       <c r="N12" t="n">
-        <v>73.83898259062262</v>
+        <v>74.40763748196376</v>
       </c>
       <c r="O12" t="n">
-        <v>8.592961223619168</v>
+        <v>8.625986174459344</v>
       </c>
       <c r="P12" t="n">
-        <v>387.5818900417931</v>
+        <v>387.3967880713788</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30354,28 +30524,28 @@
         <v>0.0302</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07663057103148396</v>
+        <v>-0.04937764632705553</v>
       </c>
       <c r="J13" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K13" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001953795889454768</v>
+        <v>0.0008098631688545632</v>
       </c>
       <c r="M13" t="n">
-        <v>9.231255272014289</v>
+        <v>9.288875825269781</v>
       </c>
       <c r="N13" t="n">
-        <v>143.0828407311487</v>
+        <v>144.610377959649</v>
       </c>
       <c r="O13" t="n">
-        <v>11.96172398658106</v>
+        <v>12.02540552162999</v>
       </c>
       <c r="P13" t="n">
-        <v>387.7166345169235</v>
+        <v>387.4285405557033</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30432,28 +30602,28 @@
         <v>0.0255</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1090401781670615</v>
+        <v>-0.08218424624407461</v>
       </c>
       <c r="J14" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K14" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003670728482698782</v>
+        <v>0.002085422012542693</v>
       </c>
       <c r="M14" t="n">
-        <v>9.642480294248836</v>
+        <v>9.699402870432699</v>
       </c>
       <c r="N14" t="n">
-        <v>152.5241503460383</v>
+        <v>153.9407876429504</v>
       </c>
       <c r="O14" t="n">
-        <v>12.35006681544834</v>
+        <v>12.40728768276735</v>
       </c>
       <c r="P14" t="n">
-        <v>386.0489716310956</v>
+        <v>385.7635353864288</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30510,28 +30680,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1442006078779329</v>
+        <v>-0.1146807337054064</v>
       </c>
       <c r="J15" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K15" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006598398855598098</v>
+        <v>0.004164972106249554</v>
       </c>
       <c r="M15" t="n">
-        <v>9.455141293600812</v>
+        <v>9.519184981522686</v>
       </c>
       <c r="N15" t="n">
-        <v>149.4745606914117</v>
+        <v>151.3359866117921</v>
       </c>
       <c r="O15" t="n">
-        <v>12.22597892568982</v>
+        <v>12.30186923242936</v>
       </c>
       <c r="P15" t="n">
-        <v>379.0963901909107</v>
+        <v>378.7846061181686</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30588,28 +30758,28 @@
         <v>0.0305</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.06429551819195331</v>
+        <v>-0.04029159721695647</v>
       </c>
       <c r="J16" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K16" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001473406613438422</v>
+        <v>0.0005792325261563258</v>
       </c>
       <c r="M16" t="n">
-        <v>9.019784596825863</v>
+        <v>9.071775265100527</v>
       </c>
       <c r="N16" t="n">
-        <v>135.0544521626957</v>
+        <v>136.095711297492</v>
       </c>
       <c r="O16" t="n">
-        <v>11.62129305037506</v>
+        <v>11.66600665598524</v>
       </c>
       <c r="P16" t="n">
-        <v>374.7884746874148</v>
+        <v>374.5367296043612</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30666,28 +30836,28 @@
         <v>0.0359</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03255585508658695</v>
+        <v>-0.01030209037307952</v>
       </c>
       <c r="J17" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K17" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000417667789199383</v>
+        <v>4.191804037934066e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>8.62401215960741</v>
+        <v>8.672316500112956</v>
       </c>
       <c r="N17" t="n">
-        <v>123.3184609124774</v>
+        <v>124.1554207654116</v>
       </c>
       <c r="O17" t="n">
-        <v>11.1048845519653</v>
+        <v>11.14250513867558</v>
       </c>
       <c r="P17" t="n">
-        <v>368.1901962448139</v>
+        <v>367.9615113897999</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30744,28 +30914,28 @@
         <v>0.0304</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07960849677328713</v>
+        <v>-0.05532621211969943</v>
       </c>
       <c r="J18" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K18" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003048954959756656</v>
+        <v>0.001470694658196048</v>
       </c>
       <c r="M18" t="n">
-        <v>7.912150903397064</v>
+        <v>7.972180491669461</v>
       </c>
       <c r="N18" t="n">
-        <v>100.9199693946949</v>
+        <v>102.1084026415758</v>
       </c>
       <c r="O18" t="n">
-        <v>10.04589316062514</v>
+        <v>10.10487024367833</v>
       </c>
       <c r="P18" t="n">
-        <v>364.3232603961313</v>
+        <v>364.0746864177445</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30822,28 +30992,28 @@
         <v>0.0303</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1613603313968569</v>
+        <v>-0.1363832551844662</v>
       </c>
       <c r="J19" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K19" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0100990299186694</v>
+        <v>0.007224565555800422</v>
       </c>
       <c r="M19" t="n">
-        <v>8.701990373859031</v>
+        <v>8.761133914902539</v>
       </c>
       <c r="N19" t="n">
-        <v>122.4590255316692</v>
+        <v>123.6937756148143</v>
       </c>
       <c r="O19" t="n">
-        <v>11.06612061797942</v>
+        <v>11.12177034535484</v>
       </c>
       <c r="P19" t="n">
-        <v>366.5038845430596</v>
+        <v>366.2457618381162</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30900,28 +31070,28 @@
         <v>0.031</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2138401702418397</v>
+        <v>-0.1873006572061308</v>
       </c>
       <c r="J20" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K20" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01627407268666081</v>
+        <v>0.01250251846222383</v>
       </c>
       <c r="M20" t="n">
-        <v>9.084989998167995</v>
+        <v>9.148539032125399</v>
       </c>
       <c r="N20" t="n">
-        <v>132.5370324929097</v>
+        <v>133.9903393750238</v>
       </c>
       <c r="O20" t="n">
-        <v>11.51247290954075</v>
+        <v>11.57541961982475</v>
       </c>
       <c r="P20" t="n">
-        <v>373.724989419527</v>
+        <v>373.4502713596464</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30978,28 +31148,28 @@
         <v>0.0308</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1958042392117519</v>
+        <v>-0.1706666616121294</v>
       </c>
       <c r="J21" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K21" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01413820205373373</v>
+        <v>0.01077474280117885</v>
       </c>
       <c r="M21" t="n">
-        <v>8.896853991917538</v>
+        <v>8.949942590587687</v>
       </c>
       <c r="N21" t="n">
-        <v>127.1565204120482</v>
+        <v>128.3748256837586</v>
       </c>
       <c r="O21" t="n">
-        <v>11.27637000155849</v>
+        <v>11.33026150111985</v>
       </c>
       <c r="P21" t="n">
-        <v>366.8462932030644</v>
+        <v>366.5888974613212</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31056,28 +31226,28 @@
         <v>0.0357</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1867609533740383</v>
+        <v>-0.1741262151961054</v>
       </c>
       <c r="J22" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K22" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01703814514300439</v>
+        <v>0.01499035486881051</v>
       </c>
       <c r="M22" t="n">
-        <v>7.782543898215633</v>
+        <v>7.790452136972073</v>
       </c>
       <c r="N22" t="n">
-        <v>97.31538104161858</v>
+        <v>97.20609061100929</v>
       </c>
       <c r="O22" t="n">
-        <v>9.864855855085699</v>
+        <v>9.85931491590614</v>
       </c>
       <c r="P22" t="n">
-        <v>366.0122287532056</v>
+        <v>365.8829172047203</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31115,7 +31285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W366"/>
+  <dimension ref="A1:W368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69177,6 +69347,240 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-37.618137386058216,177.94407433618625</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-37.618051440273426,177.94498144921914</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-37.61785306167488,177.94584384748387</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-37.61759400526292,177.9466821127993</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>-37.617228370622264,177.94747798810818</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>-37.616924893647386,177.94825577232635</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>-37.616734073442196,177.94898543361566</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>-37.61648274900161,177.94976325829538</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>-37.61618208212445,177.95059567360212</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>-37.61580432312309,177.95135842817203</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>-37.61541285106582,177.9521087930406</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>-37.614961781511106,177.9527584127817</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>-37.614545304997655,177.95341037780466</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>-37.6140764344309,177.95406617527198</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>-37.61359761486331,177.9547225933779</t>
+        </is>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>-37.613134965716796,177.9553994324997</t>
+        </is>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>-37.61257102950601,177.95593475364805</t>
+        </is>
+      </c>
+      <c r="S367" t="inlineStr">
+        <is>
+          <t>-37.61199529004911,177.9564580922699</t>
+        </is>
+      </c>
+      <c r="T367" t="inlineStr">
+        <is>
+          <t>-37.611408709840504,177.9568903744877</t>
+        </is>
+      </c>
+      <c r="U367" t="inlineStr">
+        <is>
+          <t>-37.61080190224928,177.9572919853884</t>
+        </is>
+      </c>
+      <c r="V367" t="inlineStr">
+        <is>
+          <t>-37.61018563047893,177.95776847963194</t>
+        </is>
+      </c>
+      <c r="W367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:19+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-37.61815444749474,177.94408112155855</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-37.618015945727144,177.94496733266894</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-37.617839686954,177.94583852812275</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-37.61755185213384,177.94666534750604</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>-37.61717864433185,177.94745821055193</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>-37.616883287931564,177.9482362041304</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>-37.616638643258355,177.94891717332757</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>-37.616418810276826,177.94970548146597</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>-37.616098185777396,177.9505198618991</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>-37.615752700448525,177.9513117798141</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>-37.615381770503355,177.95208070722262</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>-37.61496765427762,177.95276456270048</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>-37.614539515179935,177.95340279188252</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>-37.61407774646054,177.9540680365526</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>-37.61360854451532,177.95473895410484</t>
+        </is>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>-37.61309903732213,177.95533877732828</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>-37.61257549977764,177.9559428243729</t>
+        </is>
+      </c>
+      <c r="S368" t="inlineStr">
+        <is>
+          <t>-37.61200401428905,177.9564741464836</t>
+        </is>
+      </c>
+      <c r="T368" t="inlineStr">
+        <is>
+          <t>-37.61142349119062,177.95692606895048</t>
+        </is>
+      </c>
+      <c r="U368" t="inlineStr">
+        <is>
+          <t>-37.610827381686796,177.95737461510095</t>
+        </is>
+      </c>
+      <c r="V368" t="inlineStr">
+        <is>
+          <t>-37.610195932669264,177.9578018896036</t>
+        </is>
+      </c>
+      <c r="W368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W368"/>
+  <dimension ref="A1:W370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25694,6 +25694,148 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>401.38</v>
+      </c>
+      <c r="C369" t="n">
+        <v>398.91</v>
+      </c>
+      <c r="D369" t="n">
+        <v>376.6433333333333</v>
+      </c>
+      <c r="E369" t="n">
+        <v>398.9488888888889</v>
+      </c>
+      <c r="F369" t="n">
+        <v>417.61</v>
+      </c>
+      <c r="G369" t="n">
+        <v>428.28</v>
+      </c>
+      <c r="H369" t="n">
+        <v>428.85</v>
+      </c>
+      <c r="I369" t="n">
+        <v>414.1188888888889</v>
+      </c>
+      <c r="J369" t="n">
+        <v>405</v>
+      </c>
+      <c r="K369" t="n">
+        <v>400.19</v>
+      </c>
+      <c r="L369" t="n">
+        <v>396.3188888888889</v>
+      </c>
+      <c r="M369" t="n">
+        <v>396.75</v>
+      </c>
+      <c r="N369" t="n">
+        <v>396.68</v>
+      </c>
+      <c r="O369" t="n">
+        <v>387.9</v>
+      </c>
+      <c r="P369" t="n">
+        <v>383.7433333333333</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>373.66</v>
+      </c>
+      <c r="R369" t="n">
+        <v>373.2133333333333</v>
+      </c>
+      <c r="S369" t="n">
+        <v>373.2933333333333</v>
+      </c>
+      <c r="T369" t="n">
+        <v>378.3333333333333</v>
+      </c>
+      <c r="U369" t="n">
+        <v>367.7333333333333</v>
+      </c>
+      <c r="V369" t="n">
+        <v>362.06</v>
+      </c>
+      <c r="W369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>421.7157142857143</v>
+      </c>
+      <c r="C370" t="n">
+        <v>419.4057142857143</v>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="n">
+        <v>435.3755555555555</v>
+      </c>
+      <c r="F370" t="n">
+        <v>436.58</v>
+      </c>
+      <c r="G370" t="n">
+        <v>431.34</v>
+      </c>
+      <c r="H370" t="n">
+        <v>443.39</v>
+      </c>
+      <c r="I370" t="n">
+        <v>436.9955555555555</v>
+      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
+      <c r="M370" t="n">
+        <v>389.57</v>
+      </c>
+      <c r="N370" t="n">
+        <v>392.03</v>
+      </c>
+      <c r="O370" t="n">
+        <v>397.03</v>
+      </c>
+      <c r="P370" t="n">
+        <v>400.3733333333333</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>390.0457142857143</v>
+      </c>
+      <c r="R370" t="n">
+        <v>372.9733333333333</v>
+      </c>
+      <c r="S370" t="n">
+        <v>382.2033333333333</v>
+      </c>
+      <c r="T370" t="n">
+        <v>381.9933333333333</v>
+      </c>
+      <c r="U370" t="n">
+        <v>375.6233333333333</v>
+      </c>
+      <c r="V370" t="n">
+        <v>391.8257142857143</v>
+      </c>
+      <c r="W370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25705,7 +25847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29493,6 +29635,26 @@
       </c>
       <c r="B378" t="n">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -29666,28 +29828,28 @@
         <v>0.0356</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1922165006272266</v>
+        <v>-0.1717109688221284</v>
       </c>
       <c r="J2" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01924234995225471</v>
+        <v>0.01531188472233158</v>
       </c>
       <c r="M2" t="n">
-        <v>7.367465330963184</v>
+        <v>7.418685796128266</v>
       </c>
       <c r="N2" t="n">
-        <v>93.11333758211137</v>
+        <v>94.56504335934871</v>
       </c>
       <c r="O2" t="n">
-        <v>9.649525251643801</v>
+        <v>9.724455941560366</v>
       </c>
       <c r="P2" t="n">
-        <v>401.569857404695</v>
+        <v>401.3593322082795</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29744,28 +29906,28 @@
         <v>0.0361</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03733023049289475</v>
+        <v>0.07483717686139792</v>
       </c>
       <c r="J3" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005739052000797162</v>
+        <v>0.002237655597119859</v>
       </c>
       <c r="M3" t="n">
-        <v>8.487468651260977</v>
+        <v>8.603509645063047</v>
       </c>
       <c r="N3" t="n">
-        <v>119.8696399545418</v>
+        <v>124.4158225967868</v>
       </c>
       <c r="O3" t="n">
-        <v>10.94849943848662</v>
+        <v>11.1541840847633</v>
       </c>
       <c r="P3" t="n">
-        <v>380.917130861547</v>
+        <v>380.5316678827308</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29822,28 +29984,28 @@
         <v>0.0317</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2014000468746489</v>
+        <v>0.2022783575395006</v>
       </c>
       <c r="J4" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K4" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01379572395536188</v>
+        <v>0.01401761117654066</v>
       </c>
       <c r="M4" t="n">
-        <v>9.105571126935478</v>
+        <v>9.080482089872802</v>
       </c>
       <c r="N4" t="n">
-        <v>142.2714843820184</v>
+        <v>141.8234311613295</v>
       </c>
       <c r="O4" t="n">
-        <v>11.9277610800191</v>
+        <v>11.90896431942465</v>
       </c>
       <c r="P4" t="n">
-        <v>370.2129536180853</v>
+        <v>370.2038919482832</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29900,28 +30062,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2173548027064368</v>
+        <v>0.2574442706865246</v>
       </c>
       <c r="J5" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K5" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02517717656231766</v>
+        <v>0.03280161756373678</v>
       </c>
       <c r="M5" t="n">
-        <v>7.093114086316334</v>
+        <v>7.227999508494874</v>
       </c>
       <c r="N5" t="n">
-        <v>88.77399525366815</v>
+        <v>95.63950895411554</v>
       </c>
       <c r="O5" t="n">
-        <v>9.421995290471553</v>
+        <v>9.779545436988139</v>
       </c>
       <c r="P5" t="n">
-        <v>381.7929910004913</v>
+        <v>381.3756493781225</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29978,28 +30140,28 @@
         <v>0.0456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1786131099366242</v>
+        <v>0.2095470051695545</v>
       </c>
       <c r="J6" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K6" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0222867602043082</v>
+        <v>0.02925567236600946</v>
       </c>
       <c r="M6" t="n">
-        <v>6.565551069512643</v>
+        <v>6.66020070892916</v>
       </c>
       <c r="N6" t="n">
-        <v>68.07133452262472</v>
+        <v>71.44354399750718</v>
       </c>
       <c r="O6" t="n">
-        <v>8.250535408240166</v>
+        <v>8.452428289994963</v>
       </c>
       <c r="P6" t="n">
-        <v>399.4854934988903</v>
+        <v>399.1621402364814</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30056,28 +30218,28 @@
         <v>0.0427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1384616784573103</v>
+        <v>0.1530485859434862</v>
       </c>
       <c r="J7" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K7" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01180557466268006</v>
+        <v>0.01445676289792208</v>
       </c>
       <c r="M7" t="n">
-        <v>6.800522384332951</v>
+        <v>6.831980986689082</v>
       </c>
       <c r="N7" t="n">
-        <v>77.87383886161049</v>
+        <v>78.11559138637126</v>
       </c>
       <c r="O7" t="n">
-        <v>8.82461550786268</v>
+        <v>8.838302517246808</v>
       </c>
       <c r="P7" t="n">
-        <v>415.4757961019318</v>
+        <v>415.3225298709747</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30134,28 +30296,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04036467640007837</v>
+        <v>0.06236735207451893</v>
       </c>
       <c r="J8" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K8" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009343880936660831</v>
+        <v>0.002207973752644921</v>
       </c>
       <c r="M8" t="n">
-        <v>7.241032033680898</v>
+        <v>7.297302261427443</v>
       </c>
       <c r="N8" t="n">
-        <v>86.12785947027665</v>
+        <v>87.59413091851214</v>
       </c>
       <c r="O8" t="n">
-        <v>9.280509655739637</v>
+        <v>9.359173623697348</v>
       </c>
       <c r="P8" t="n">
-        <v>418.6381262933727</v>
+        <v>418.4093101250857</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30212,28 +30374,28 @@
         <v>0.0483</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04208572039594144</v>
+        <v>-0.01599809639826864</v>
       </c>
       <c r="J9" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K9" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001282979826776942</v>
+        <v>0.0001798020348638962</v>
       </c>
       <c r="M9" t="n">
-        <v>6.523147636532615</v>
+        <v>6.608167783387294</v>
       </c>
       <c r="N9" t="n">
-        <v>68.38786623093679</v>
+        <v>71.1478524662741</v>
       </c>
       <c r="O9" t="n">
-        <v>8.269695655278785</v>
+        <v>8.434918640169217</v>
       </c>
       <c r="P9" t="n">
-        <v>407.2872204263442</v>
+        <v>407.0155150170634</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30290,28 +30452,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03868317617255519</v>
+        <v>-0.03169901682810235</v>
       </c>
       <c r="J10" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K10" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001051121908760111</v>
+        <v>0.0007078771087564162</v>
       </c>
       <c r="M10" t="n">
-        <v>6.680981456247347</v>
+        <v>6.692995760566206</v>
       </c>
       <c r="N10" t="n">
-        <v>69.35660419043782</v>
+        <v>69.45934362355912</v>
       </c>
       <c r="O10" t="n">
-        <v>8.328061250401429</v>
+        <v>8.334227236136481</v>
       </c>
       <c r="P10" t="n">
-        <v>395.8841465078553</v>
+        <v>395.8107447776856</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30368,28 +30530,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09373539458696428</v>
+        <v>-0.08514815814614826</v>
       </c>
       <c r="J11" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K11" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006472052011367246</v>
+        <v>0.005345195654742341</v>
       </c>
       <c r="M11" t="n">
-        <v>6.383890536850579</v>
+        <v>6.401122785458641</v>
       </c>
       <c r="N11" t="n">
-        <v>66.18794763114917</v>
+        <v>66.47072670915627</v>
       </c>
       <c r="O11" t="n">
-        <v>8.13559755833271</v>
+        <v>8.152958156960961</v>
       </c>
       <c r="P11" t="n">
-        <v>390.1595082958373</v>
+        <v>390.0694630690064</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30446,28 +30608,28 @@
         <v>0.0484</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09123996210229864</v>
+        <v>-0.08336141349982196</v>
       </c>
       <c r="J12" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K12" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005353282707027507</v>
+        <v>0.004481272416272719</v>
       </c>
       <c r="M12" t="n">
-        <v>6.983251104709435</v>
+        <v>6.991535097103069</v>
       </c>
       <c r="N12" t="n">
-        <v>74.40763748196376</v>
+        <v>74.57244959394974</v>
       </c>
       <c r="O12" t="n">
-        <v>8.625986174459344</v>
+        <v>8.635534123257793</v>
       </c>
       <c r="P12" t="n">
-        <v>387.3967880713788</v>
+        <v>387.3135807564185</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30524,28 +30686,28 @@
         <v>0.0302</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04937764632705553</v>
+        <v>-0.03968554045944015</v>
       </c>
       <c r="J13" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K13" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0008098631688545632</v>
+        <v>0.0005294549632585133</v>
       </c>
       <c r="M13" t="n">
-        <v>9.288875825269781</v>
+        <v>9.270701128022422</v>
       </c>
       <c r="N13" t="n">
-        <v>144.610377959649</v>
+        <v>144.06467318939</v>
       </c>
       <c r="O13" t="n">
-        <v>12.02540552162999</v>
+        <v>12.00269441373019</v>
       </c>
       <c r="P13" t="n">
-        <v>387.4285405557033</v>
+        <v>387.3253341861464</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30602,28 +30764,28 @@
         <v>0.0255</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08218424624407461</v>
+        <v>-0.06749464940277332</v>
       </c>
       <c r="J14" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K14" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002085422012542693</v>
+        <v>0.001420780038793201</v>
       </c>
       <c r="M14" t="n">
-        <v>9.699402870432699</v>
+        <v>9.703581922596282</v>
       </c>
       <c r="N14" t="n">
-        <v>153.9407876429504</v>
+        <v>153.7074918996494</v>
       </c>
       <c r="O14" t="n">
-        <v>12.40728768276735</v>
+        <v>12.3978825571002</v>
       </c>
       <c r="P14" t="n">
-        <v>385.7635353864288</v>
+        <v>385.6062651355995</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30680,28 +30842,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1146807337054064</v>
+        <v>-0.09134886534250718</v>
       </c>
       <c r="J15" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K15" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004164972106249554</v>
+        <v>0.002651856195222901</v>
       </c>
       <c r="M15" t="n">
-        <v>9.519184981522686</v>
+        <v>9.555160037248678</v>
       </c>
       <c r="N15" t="n">
-        <v>151.3359866117921</v>
+        <v>152.2601698302508</v>
       </c>
       <c r="O15" t="n">
-        <v>12.30186923242936</v>
+        <v>12.33937477468979</v>
       </c>
       <c r="P15" t="n">
-        <v>378.7846061181686</v>
+        <v>378.5362882446853</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30758,28 +30920,28 @@
         <v>0.0305</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04029159721695647</v>
+        <v>-0.01460892018572192</v>
       </c>
       <c r="J16" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K16" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005792325261563258</v>
+        <v>7.581372540366171e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>9.071775265100527</v>
+        <v>9.130981204493368</v>
       </c>
       <c r="N16" t="n">
-        <v>136.095711297492</v>
+        <v>137.8614800787565</v>
       </c>
       <c r="O16" t="n">
-        <v>11.66600665598524</v>
+        <v>11.74144284484477</v>
       </c>
       <c r="P16" t="n">
-        <v>374.5367296043612</v>
+        <v>374.2652572996845</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30836,28 +30998,28 @@
         <v>0.0359</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01030209037307952</v>
+        <v>0.00974464294748878</v>
       </c>
       <c r="J17" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K17" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L17" t="n">
-        <v>4.191804037934066e-05</v>
+        <v>3.755839075558765e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>8.672316500112956</v>
+        <v>8.710693837614773</v>
       </c>
       <c r="N17" t="n">
-        <v>124.1554207654116</v>
+        <v>125.0669429252236</v>
       </c>
       <c r="O17" t="n">
-        <v>11.14250513867558</v>
+        <v>11.1833332654099</v>
       </c>
       <c r="P17" t="n">
-        <v>367.9615113897999</v>
+        <v>367.7539973125552</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30914,28 +31076,28 @@
         <v>0.0304</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.05532621211969943</v>
+        <v>-0.04042024862672024</v>
       </c>
       <c r="J18" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K18" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001470694658196048</v>
+        <v>0.0007923177454933761</v>
       </c>
       <c r="M18" t="n">
-        <v>7.972180491669461</v>
+        <v>7.987737828949861</v>
       </c>
       <c r="N18" t="n">
-        <v>102.1084026415758</v>
+        <v>102.1379438070433</v>
       </c>
       <c r="O18" t="n">
-        <v>10.10487024367833</v>
+        <v>10.1063318670546</v>
       </c>
       <c r="P18" t="n">
-        <v>364.0746864177445</v>
+        <v>363.9209725497814</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30992,28 +31154,28 @@
         <v>0.0303</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1363832551844662</v>
+        <v>-0.1156064511813483</v>
       </c>
       <c r="J19" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K19" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007224565555800422</v>
+        <v>0.00521559305187913</v>
       </c>
       <c r="M19" t="n">
-        <v>8.761133914902539</v>
+        <v>8.801737745650728</v>
       </c>
       <c r="N19" t="n">
-        <v>123.6937756148143</v>
+        <v>124.4309545080156</v>
       </c>
       <c r="O19" t="n">
-        <v>11.12177034535484</v>
+        <v>11.15486237064428</v>
       </c>
       <c r="P19" t="n">
-        <v>366.2457618381162</v>
+        <v>366.0294524164182</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31070,28 +31232,28 @@
         <v>0.031</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1873006572061308</v>
+        <v>-0.1713737089023366</v>
       </c>
       <c r="J20" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K20" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01250251846222383</v>
+        <v>0.0105778094162664</v>
       </c>
       <c r="M20" t="n">
-        <v>9.148539032125399</v>
+        <v>9.161820837912586</v>
       </c>
       <c r="N20" t="n">
-        <v>133.9903393750238</v>
+        <v>133.985653492096</v>
       </c>
       <c r="O20" t="n">
-        <v>11.57541961982475</v>
+        <v>11.57521721144342</v>
       </c>
       <c r="P20" t="n">
-        <v>373.4502713596464</v>
+        <v>373.2841803808802</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31148,28 +31310,28 @@
         <v>0.0308</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1706666616121294</v>
+        <v>-0.1572234285154192</v>
       </c>
       <c r="J21" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K21" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01077474280117885</v>
+        <v>0.009255750052650891</v>
       </c>
       <c r="M21" t="n">
-        <v>8.949942590587687</v>
+        <v>8.954195721363043</v>
       </c>
       <c r="N21" t="n">
-        <v>128.3748256837586</v>
+        <v>128.2164886582056</v>
       </c>
       <c r="O21" t="n">
-        <v>11.33026150111985</v>
+        <v>11.32327199435771</v>
       </c>
       <c r="P21" t="n">
-        <v>366.5888974613212</v>
+        <v>366.4502252035267</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31226,28 +31388,28 @@
         <v>0.0357</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1741262151961054</v>
+        <v>-0.152233229846498</v>
       </c>
       <c r="J22" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K22" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01499035486881051</v>
+        <v>0.01133367632676929</v>
       </c>
       <c r="M22" t="n">
-        <v>7.790452136972073</v>
+        <v>7.840867155495812</v>
       </c>
       <c r="N22" t="n">
-        <v>97.20609061100929</v>
+        <v>99.52277926987102</v>
       </c>
       <c r="O22" t="n">
-        <v>9.85931491590614</v>
+        <v>9.976110427910822</v>
       </c>
       <c r="P22" t="n">
-        <v>365.8829172047203</v>
+        <v>365.6570841809275</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31285,7 +31447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W368"/>
+  <dimension ref="A1:W370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69581,6 +69743,224 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-37.6180989151498,177.94405903623192</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-37.617929291500545,177.94493286945024</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-37.6179293947431,177.94587420652869</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-37.61754735579984,177.94666355920936</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>-37.617196562944024,177.94746533728858</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>-37.6169258200904,177.94825620805568</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>-37.61670890676495,177.94896743211308</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>-37.616459886510306,177.94974259908994</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>-37.61613177353036,177.95055021295138</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>-37.61577219586019,177.9513293966543</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>-37.61540576038225,177.95210238557178</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>-37.615024170998794,177.95282374667565</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>-37.61458023066001,177.95345613806944</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>-37.61412760356096,177.9541387652646</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>-37.613641757533394,177.95478867112243</t>
+        </is>
+      </c>
+      <c r="Q369" t="inlineStr">
+        <is>
+          <t>-37.61316709639706,177.95545367637843</t>
+        </is>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>-37.61260403414055,177.95599434097574</t>
+        </is>
+      </c>
+      <c r="S369" t="inlineStr">
+        <is>
+          <t>-37.61203542829533,177.95653195412817</t>
+        </is>
+      </c>
+      <c r="T369" t="inlineStr">
+        <is>
+          <t>-37.61145369050384,177.95699899531942</t>
+        </is>
+      </c>
+      <c r="U369" t="inlineStr">
+        <is>
+          <t>-37.61085280689686,177.95745706920604</t>
+        </is>
+      </c>
+      <c r="V369" t="inlineStr">
+        <is>
+          <t>-37.61021716378472,177.95787074217625</t>
+        </is>
+      </c>
+      <c r="W369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-37.61792456509888,177.9439896971209</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-37.617753570150846,177.94486298367875</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-37.61723505100025,177.94653934896147</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>-37.61703392364866,177.947400651213</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>-37.61690004812944,177.94824408686233</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>-37.616595265884534,177.9488861459849</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>-37.61629284739545,177.94959165825912</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>-37.615073778555264,177.9528756955214</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>-37.61460917972251,177.95349406773317</t>
+        </is>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>-37.61407315435669,177.95406152207067</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>-37.613545588141605,177.95464471407428</t>
+        </is>
+      </c>
+      <c r="Q370" t="inlineStr">
+        <is>
+          <t>-37.61307909754638,177.95530511457468</t>
+        </is>
+      </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>-37.61260526731773,177.95599656738437</t>
+        </is>
+      </c>
+      <c r="S370" t="inlineStr">
+        <is>
+          <t>-37.61199023472291,177.95644878953922</t>
+        </is>
+      </c>
+      <c r="T370" t="inlineStr">
+        <is>
+          <t>-37.61143849397204,177.95696229817543</t>
+        </is>
+      </c>
+      <c r="U370" t="inlineStr">
+        <is>
+          <t>-37.610827165025185,177.95737391246715</t>
+        </is>
+      </c>
+      <c r="V370" t="inlineStr">
+        <is>
+          <t>-37.610120427917266,177.95755702888323</t>
+        </is>
+      </c>
+      <c r="W370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W370"/>
+  <dimension ref="A1:W372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25836,6 +25836,156 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>395.3414285714285</v>
+      </c>
+      <c r="C371" t="n">
+        <v>386.3614285714286</v>
+      </c>
+      <c r="D371" t="n">
+        <v>378.2533333333333</v>
+      </c>
+      <c r="E371" t="n">
+        <v>390.7222222222222</v>
+      </c>
+      <c r="F371" t="n">
+        <v>410.64</v>
+      </c>
+      <c r="G371" t="n">
+        <v>416.61</v>
+      </c>
+      <c r="H371" t="n">
+        <v>418.79</v>
+      </c>
+      <c r="I371" t="n">
+        <v>406.7622222222223</v>
+      </c>
+      <c r="J371" t="n">
+        <v>398.31</v>
+      </c>
+      <c r="K371" t="n">
+        <v>389</v>
+      </c>
+      <c r="L371" t="n">
+        <v>388.1522222222222</v>
+      </c>
+      <c r="M371" t="n">
+        <v>386.05</v>
+      </c>
+      <c r="N371" t="n">
+        <v>383.89</v>
+      </c>
+      <c r="O371" t="n">
+        <v>378.21</v>
+      </c>
+      <c r="P371" t="n">
+        <v>372.9233333333333</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>365.9014285714285</v>
+      </c>
+      <c r="R371" t="n">
+        <v>361.1533333333333</v>
+      </c>
+      <c r="S371" t="n">
+        <v>359.4733333333333</v>
+      </c>
+      <c r="T371" t="n">
+        <v>361.6233333333333</v>
+      </c>
+      <c r="U371" t="n">
+        <v>359.6333333333333</v>
+      </c>
+      <c r="V371" t="n">
+        <v>354.1614285714285</v>
+      </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>399.8028571428572</v>
+      </c>
+      <c r="C372" t="n">
+        <v>377.3728571428572</v>
+      </c>
+      <c r="D372" t="n">
+        <v>384.8833333333333</v>
+      </c>
+      <c r="E372" t="n">
+        <v>394.1955555555555</v>
+      </c>
+      <c r="F372" t="n">
+        <v>398.79</v>
+      </c>
+      <c r="G372" t="n">
+        <v>417.91</v>
+      </c>
+      <c r="H372" t="n">
+        <v>414.86</v>
+      </c>
+      <c r="I372" t="n">
+        <v>404.1255555555555</v>
+      </c>
+      <c r="J372" t="n">
+        <v>392.96</v>
+      </c>
+      <c r="K372" t="n">
+        <v>386.62</v>
+      </c>
+      <c r="L372" t="n">
+        <v>377.7955555555556</v>
+      </c>
+      <c r="M372" t="n">
+        <v>373.95</v>
+      </c>
+      <c r="N372" t="n">
+        <v>372.96</v>
+      </c>
+      <c r="O372" t="n">
+        <v>367.75</v>
+      </c>
+      <c r="P372" t="n">
+        <v>364.0833333333333</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>354.9928571428572</v>
+      </c>
+      <c r="R372" t="n">
+        <v>345.6633333333333</v>
+      </c>
+      <c r="S372" t="n">
+        <v>352.7433333333333</v>
+      </c>
+      <c r="T372" t="n">
+        <v>353.7833333333333</v>
+      </c>
+      <c r="U372" t="n">
+        <v>347.6433333333333</v>
+      </c>
+      <c r="V372" t="n">
+        <v>347.2228571428572</v>
+      </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25847,7 +25997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29655,6 +29805,26 @@
       </c>
       <c r="B380" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -29828,28 +29998,28 @@
         <v>0.0356</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1717109688221284</v>
+        <v>-0.1708616729093755</v>
       </c>
       <c r="J2" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01531188472233158</v>
+        <v>0.01537879859674596</v>
       </c>
       <c r="M2" t="n">
-        <v>7.418685796128266</v>
+        <v>7.38606981546319</v>
       </c>
       <c r="N2" t="n">
-        <v>94.56504335934871</v>
+        <v>94.00050828690395</v>
       </c>
       <c r="O2" t="n">
-        <v>9.724455941560366</v>
+        <v>9.695385927692818</v>
       </c>
       <c r="P2" t="n">
-        <v>401.3593322082795</v>
+        <v>401.3505850573251</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29906,28 +30076,28 @@
         <v>0.0361</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07483717686139792</v>
+        <v>0.07403645069990841</v>
       </c>
       <c r="J3" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K3" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002237655597119859</v>
+        <v>0.00222013908446117</v>
       </c>
       <c r="M3" t="n">
-        <v>8.603509645063047</v>
+        <v>8.577553189515728</v>
       </c>
       <c r="N3" t="n">
-        <v>124.4158225967868</v>
+        <v>123.7584092195913</v>
       </c>
       <c r="O3" t="n">
-        <v>11.1541840847633</v>
+        <v>11.12467569053549</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5316678827308</v>
+        <v>380.5399397290838</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29984,28 +30154,28 @@
         <v>0.0317</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2022783575395006</v>
+        <v>0.2107083905530089</v>
       </c>
       <c r="J4" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K4" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01401761117654066</v>
+        <v>0.01538350380621989</v>
       </c>
       <c r="M4" t="n">
-        <v>9.080482089872802</v>
+        <v>9.061091487604443</v>
       </c>
       <c r="N4" t="n">
-        <v>141.8234311613295</v>
+        <v>141.2307939464803</v>
       </c>
       <c r="O4" t="n">
-        <v>11.90896431942465</v>
+        <v>11.88405629179197</v>
       </c>
       <c r="P4" t="n">
-        <v>370.2038919482832</v>
+        <v>370.1167005417775</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30062,28 +30232,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2574442706865246</v>
+        <v>0.2633555004833873</v>
       </c>
       <c r="J5" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K5" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03280161756373678</v>
+        <v>0.03469956677602082</v>
       </c>
       <c r="M5" t="n">
-        <v>7.227999508494874</v>
+        <v>7.21052199179024</v>
       </c>
       <c r="N5" t="n">
-        <v>95.63950895411554</v>
+        <v>95.19110380272524</v>
       </c>
       <c r="O5" t="n">
-        <v>9.779545436988139</v>
+        <v>9.756592837805892</v>
       </c>
       <c r="P5" t="n">
-        <v>381.3756493781225</v>
+        <v>381.3140070125904</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30140,28 +30310,28 @@
         <v>0.0456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2095470051695545</v>
+        <v>0.2097593716142175</v>
       </c>
       <c r="J6" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K6" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02925567236600946</v>
+        <v>0.02962957615188588</v>
       </c>
       <c r="M6" t="n">
-        <v>6.66020070892916</v>
+        <v>6.655612694532994</v>
       </c>
       <c r="N6" t="n">
-        <v>71.44354399750718</v>
+        <v>71.21887897097486</v>
       </c>
       <c r="O6" t="n">
-        <v>8.452428289994963</v>
+        <v>8.439127856062784</v>
       </c>
       <c r="P6" t="n">
-        <v>399.1621402364814</v>
+        <v>399.1599548254973</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30218,28 +30388,28 @@
         <v>0.0427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1530485859434862</v>
+        <v>0.1503924170704194</v>
       </c>
       <c r="J7" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K7" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01445676289792208</v>
+        <v>0.01415715408237139</v>
       </c>
       <c r="M7" t="n">
-        <v>6.831980986689082</v>
+        <v>6.800061374339081</v>
       </c>
       <c r="N7" t="n">
-        <v>78.11559138637126</v>
+        <v>77.6529556135183</v>
       </c>
       <c r="O7" t="n">
-        <v>8.838302517246808</v>
+        <v>8.81209144377873</v>
       </c>
       <c r="P7" t="n">
-        <v>415.3225298709747</v>
+        <v>415.3504839631791</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30296,28 +30466,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06236735207451893</v>
+        <v>0.05817075464810297</v>
       </c>
       <c r="J8" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K8" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002207973752644921</v>
+        <v>0.001946494717755209</v>
       </c>
       <c r="M8" t="n">
-        <v>7.297302261427443</v>
+        <v>7.271427205932874</v>
       </c>
       <c r="N8" t="n">
-        <v>87.59413091851214</v>
+        <v>87.13013322120737</v>
       </c>
       <c r="O8" t="n">
-        <v>9.359173623697348</v>
+        <v>9.334352319320681</v>
       </c>
       <c r="P8" t="n">
-        <v>418.4093101250857</v>
+        <v>418.4530385681032</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30374,28 +30544,28 @@
         <v>0.0483</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01599809639826864</v>
+        <v>-0.017538212191651</v>
       </c>
       <c r="J9" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K9" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001798020348638962</v>
+        <v>0.0002190732971993903</v>
       </c>
       <c r="M9" t="n">
-        <v>6.608167783387294</v>
+        <v>6.57412485794655</v>
       </c>
       <c r="N9" t="n">
-        <v>71.1478524662741</v>
+        <v>70.71276605991082</v>
       </c>
       <c r="O9" t="n">
-        <v>8.434918640169217</v>
+        <v>8.409088301350558</v>
       </c>
       <c r="P9" t="n">
-        <v>407.0155150170634</v>
+        <v>407.0315903892985</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30452,28 +30622,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03169901682810235</v>
+        <v>-0.03083347058927615</v>
       </c>
       <c r="J10" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K10" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007078771087564162</v>
+        <v>0.0006790040746036397</v>
       </c>
       <c r="M10" t="n">
-        <v>6.692995760566206</v>
+        <v>6.667296778057893</v>
       </c>
       <c r="N10" t="n">
-        <v>69.45934362355912</v>
+        <v>69.06123678252357</v>
       </c>
       <c r="O10" t="n">
-        <v>8.334227236136481</v>
+        <v>8.310309066606582</v>
       </c>
       <c r="P10" t="n">
-        <v>395.8107447776856</v>
+        <v>395.8016450252294</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30530,28 +30700,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08514815814614826</v>
+        <v>-0.08524626744286191</v>
       </c>
       <c r="J11" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K11" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005345195654742341</v>
+        <v>0.005433880955356685</v>
       </c>
       <c r="M11" t="n">
-        <v>6.401122785458641</v>
+        <v>6.367406725061342</v>
       </c>
       <c r="N11" t="n">
-        <v>66.47072670915627</v>
+        <v>66.04967865692774</v>
       </c>
       <c r="O11" t="n">
-        <v>8.152958156960961</v>
+        <v>8.127095339475705</v>
       </c>
       <c r="P11" t="n">
-        <v>390.0694630690064</v>
+        <v>390.070502329343</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30608,28 +30778,28 @@
         <v>0.0484</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08336141349982196</v>
+        <v>-0.08639453564976141</v>
       </c>
       <c r="J12" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K12" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004481272416272719</v>
+        <v>0.004868954272140069</v>
       </c>
       <c r="M12" t="n">
-        <v>6.991535097103069</v>
+        <v>6.981986676110602</v>
       </c>
       <c r="N12" t="n">
-        <v>74.57244959394974</v>
+        <v>74.29654868302818</v>
       </c>
       <c r="O12" t="n">
-        <v>8.635534123257793</v>
+        <v>8.619544575151762</v>
       </c>
       <c r="P12" t="n">
-        <v>387.3135807564185</v>
+        <v>387.3457217805208</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30686,28 +30856,28 @@
         <v>0.0302</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03968554045944015</v>
+        <v>-0.04828861482901659</v>
       </c>
       <c r="J13" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K13" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005294549632585133</v>
+        <v>0.0007921900088725398</v>
       </c>
       <c r="M13" t="n">
-        <v>9.270701128022422</v>
+        <v>9.253459077818665</v>
       </c>
       <c r="N13" t="n">
-        <v>144.06467318939</v>
+        <v>143.6211369257907</v>
       </c>
       <c r="O13" t="n">
-        <v>12.00269441373019</v>
+        <v>11.9842036417023</v>
       </c>
       <c r="P13" t="n">
-        <v>387.3253341861464</v>
+        <v>387.4171789453388</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30764,28 +30934,28 @@
         <v>0.0255</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06749464940277332</v>
+        <v>-0.07486119542135027</v>
       </c>
       <c r="J14" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K14" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001420780038793201</v>
+        <v>0.00176761392136171</v>
       </c>
       <c r="M14" t="n">
-        <v>9.703581922596282</v>
+        <v>9.677278227387397</v>
       </c>
       <c r="N14" t="n">
-        <v>153.7074918996494</v>
+        <v>153.1037557450357</v>
       </c>
       <c r="O14" t="n">
-        <v>12.3978825571002</v>
+        <v>12.37351024346106</v>
       </c>
       <c r="P14" t="n">
-        <v>385.6062651355995</v>
+        <v>385.6853240650235</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30842,28 +31012,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09134886534250718</v>
+        <v>-0.09578372667023582</v>
       </c>
       <c r="J15" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K15" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002651856195222901</v>
+        <v>0.002952188571886838</v>
       </c>
       <c r="M15" t="n">
-        <v>9.555160037248678</v>
+        <v>9.528848232938715</v>
       </c>
       <c r="N15" t="n">
-        <v>152.2601698302508</v>
+        <v>151.5071314189769</v>
       </c>
       <c r="O15" t="n">
-        <v>12.33937477468979</v>
+        <v>12.30882331577543</v>
       </c>
       <c r="P15" t="n">
-        <v>378.5362882446853</v>
+        <v>378.5836065095738</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30920,28 +31090,28 @@
         <v>0.0305</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01460892018572192</v>
+        <v>-0.02194471852064654</v>
       </c>
       <c r="J16" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K16" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L16" t="n">
-        <v>7.581372540366171e-05</v>
+        <v>0.0001731168484158108</v>
       </c>
       <c r="M16" t="n">
-        <v>9.130981204493368</v>
+        <v>9.10661394223848</v>
       </c>
       <c r="N16" t="n">
-        <v>137.8614800787565</v>
+        <v>137.2776470153255</v>
       </c>
       <c r="O16" t="n">
-        <v>11.74144284484477</v>
+        <v>11.71655440030581</v>
       </c>
       <c r="P16" t="n">
-        <v>374.2652572996845</v>
+        <v>374.3429583379701</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30998,28 +31168,28 @@
         <v>0.0359</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00974464294748878</v>
+        <v>-0.0007740056063665047</v>
       </c>
       <c r="J17" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K17" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L17" t="n">
-        <v>3.755839075558765e-05</v>
+        <v>2.394739523348122e-07</v>
       </c>
       <c r="M17" t="n">
-        <v>8.710693837614773</v>
+        <v>8.70003290005239</v>
       </c>
       <c r="N17" t="n">
-        <v>125.0669429252236</v>
+        <v>124.8101165579867</v>
       </c>
       <c r="O17" t="n">
-        <v>11.1833332654099</v>
+        <v>11.17184481444254</v>
       </c>
       <c r="P17" t="n">
-        <v>367.7539973125552</v>
+        <v>367.8630880164986</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31076,28 +31246,28 @@
         <v>0.0304</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04042024862672024</v>
+        <v>-0.05372241497202557</v>
       </c>
       <c r="J18" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K18" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0007923177454933761</v>
+        <v>0.001406786506491065</v>
       </c>
       <c r="M18" t="n">
-        <v>7.987737828949861</v>
+        <v>7.996775249256419</v>
       </c>
       <c r="N18" t="n">
-        <v>102.1379438070433</v>
+        <v>102.4373128661381</v>
       </c>
       <c r="O18" t="n">
-        <v>10.1063318670546</v>
+        <v>10.12113199529273</v>
       </c>
       <c r="P18" t="n">
-        <v>363.9209725497814</v>
+        <v>364.0584505034108</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31154,28 +31324,28 @@
         <v>0.0303</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1156064511813483</v>
+        <v>-0.1250716563899309</v>
       </c>
       <c r="J19" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K19" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00521559305187913</v>
+        <v>0.006170678531951523</v>
       </c>
       <c r="M19" t="n">
-        <v>8.801737745650728</v>
+        <v>8.788632621723742</v>
       </c>
       <c r="N19" t="n">
-        <v>124.4309545080156</v>
+        <v>124.0169735194712</v>
       </c>
       <c r="O19" t="n">
-        <v>11.15486237064428</v>
+        <v>11.13629083310378</v>
       </c>
       <c r="P19" t="n">
-        <v>366.0294524164182</v>
+        <v>366.1281809790616</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31232,28 +31402,28 @@
         <v>0.031</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1713737089023366</v>
+        <v>-0.1865711617173671</v>
       </c>
       <c r="J20" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K20" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0105778094162664</v>
+        <v>0.01261386547387322</v>
       </c>
       <c r="M20" t="n">
-        <v>9.161820837912586</v>
+        <v>9.174661063102468</v>
       </c>
       <c r="N20" t="n">
-        <v>133.985653492096</v>
+        <v>134.0087868293402</v>
       </c>
       <c r="O20" t="n">
-        <v>11.57521721144342</v>
+        <v>11.57621642979001</v>
       </c>
       <c r="P20" t="n">
-        <v>373.2841803808802</v>
+        <v>373.4429628996347</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31310,28 +31480,28 @@
         <v>0.0308</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1572234285154192</v>
+        <v>-0.1694613020805824</v>
       </c>
       <c r="J21" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K21" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009255750052650891</v>
+        <v>0.01084252347348691</v>
       </c>
       <c r="M21" t="n">
-        <v>8.954195721363043</v>
+        <v>8.950944361128393</v>
       </c>
       <c r="N21" t="n">
-        <v>128.2164886582056</v>
+        <v>128.1097752038242</v>
       </c>
       <c r="O21" t="n">
-        <v>11.32327199435771</v>
+        <v>11.31855888370177</v>
       </c>
       <c r="P21" t="n">
-        <v>366.4502252035267</v>
+        <v>366.5766965367675</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31388,28 +31558,28 @@
         <v>0.0357</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.152233229846498</v>
+        <v>-0.1675361172749316</v>
       </c>
       <c r="J22" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K22" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01133367632676929</v>
+        <v>0.01378389278167247</v>
       </c>
       <c r="M22" t="n">
-        <v>7.840867155495812</v>
+        <v>7.859306396206283</v>
       </c>
       <c r="N22" t="n">
-        <v>99.52277926987102</v>
+        <v>99.72757188320723</v>
       </c>
       <c r="O22" t="n">
-        <v>9.976110427910822</v>
+        <v>9.986369304367189</v>
       </c>
       <c r="P22" t="n">
-        <v>365.6570841809275</v>
+        <v>365.8151755678819</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31447,7 +31617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W370"/>
+  <dimension ref="A1:W372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43229,7 +43399,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>-37.61369546117803,177.95486906100663</t>
+          <t>-37.613695461178025,177.95486906100663</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -69961,6 +70131,240 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-37.61815068736485,177.94407962614596</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-37.618036877466466,177.9449756574374</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-37.61791559134759,177.94586871666252</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-37.617617887271265,177.94669161124727</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>-37.61725632022449,177.94748910447183</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>-37.617024107257265,177.94830243504484</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>-37.61678753307976,177.9490236728749</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>-37.61651360281066,177.94979113871295</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>-37.61618062178823,177.95059435398872</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>-37.61585390131328,177.95140322913306</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>-37.61546539025891,177.95215626993118</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>-37.61509809868408,177.95290116350495</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>-37.614659856111196,177.95356046510784</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>-37.61418539241078,177.95422074638915</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>-37.613704328248936,177.95488233429356</t>
+        </is>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>-37.61320876343311,177.9555240199291</t>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>-37.61266600123466,177.95610621809968</t>
+        </is>
+      </c>
+      <c r="S371" t="inlineStr">
+        <is>
+          <t>-37.61210552638769,177.95666094810568</t>
+        </is>
+      </c>
+      <c r="T371" t="inlineStr">
+        <is>
+          <t>-37.61152307123142,177.95716653901638</t>
+        </is>
+      </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t>-37.61087913118626,177.95754243929608</t>
+        </is>
+      </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t>-37.61024283327381,177.9579539886427</t>
+        </is>
+      </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-37.61811243692122,177.94406441386428</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-37.61811394153291,177.94500630665968</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-37.617858748788976,177.94584610934965</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-37.61758810858816,177.94667976755133</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>-37.61735791615667,177.94752951219206</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>-37.617013158388296,177.94829728550212</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>-37.61681824891663,177.94904564370356</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>-37.61653285499915,177.94980853557774</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>-37.61621968577608,177.9506296536655</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>-37.61587127923051,177.9514189325773</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>-37.61554101063311,177.95222460422443</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>-37.61518169907534,177.9529887098276</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>-37.614727901855936,177.9536496204469</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>-37.614247773282315,177.95430924215123</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>-37.61375544880648,177.954958857739</t>
+        </is>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>-37.6132673473122,177.95562292327259</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>-37.61274559229283,177.95624991460403</t>
+        </is>
+      </c>
+      <c r="S372" t="inlineStr">
+        <is>
+          <t>-37.61213966237639,177.9567237650843</t>
+        </is>
+      </c>
+      <c r="T372" t="inlineStr">
+        <is>
+          <t>-37.61155562320015,177.95724514729127</t>
+        </is>
+      </c>
+      <c r="U372" t="inlineStr">
+        <is>
+          <t>-37.610918097512524,177.95766880820852</t>
+        </is>
+      </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t>-37.610265382816294,177.95802711729604</t>
+        </is>
+      </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W372"/>
+  <dimension ref="A1:W373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25986,6 +25986,81 @@
         </is>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:20+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>412.9228571428571</v>
+      </c>
+      <c r="C373" t="n">
+        <v>397.9428571428572</v>
+      </c>
+      <c r="D373" t="n">
+        <v>384.5466666666667</v>
+      </c>
+      <c r="E373" t="n">
+        <v>404.8011111111111</v>
+      </c>
+      <c r="F373" t="n">
+        <v>409.9</v>
+      </c>
+      <c r="G373" t="n">
+        <v>429.74</v>
+      </c>
+      <c r="H373" t="n">
+        <v>426.86</v>
+      </c>
+      <c r="I373" t="n">
+        <v>419.0811111111111</v>
+      </c>
+      <c r="J373" t="n">
+        <v>400.72</v>
+      </c>
+      <c r="K373" t="n">
+        <v>400.84</v>
+      </c>
+      <c r="L373" t="n">
+        <v>394.0511111111111</v>
+      </c>
+      <c r="M373" t="n">
+        <v>391.95</v>
+      </c>
+      <c r="N373" t="n">
+        <v>393.26</v>
+      </c>
+      <c r="O373" t="n">
+        <v>379.54</v>
+      </c>
+      <c r="P373" t="n">
+        <v>380.2766666666667</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>368.7028571428572</v>
+      </c>
+      <c r="R373" t="n">
+        <v>367.0166666666667</v>
+      </c>
+      <c r="S373" t="n">
+        <v>366.3666666666667</v>
+      </c>
+      <c r="T373" t="n">
+        <v>371.4866666666667</v>
+      </c>
+      <c r="U373" t="n">
+        <v>360.3566666666667</v>
+      </c>
+      <c r="V373" t="n">
+        <v>357.3528571428571</v>
+      </c>
+      <c r="W373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25997,7 +26072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29825,6 +29900,16 @@
       </c>
       <c r="B382" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -29998,28 +30083,28 @@
         <v>0.0356</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1708616729093755</v>
+        <v>-0.1601519627530024</v>
       </c>
       <c r="J2" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01537879859674596</v>
+        <v>0.01352041617206057</v>
       </c>
       <c r="M2" t="n">
-        <v>7.38606981546319</v>
+        <v>7.416025761735539</v>
       </c>
       <c r="N2" t="n">
-        <v>94.00050828690395</v>
+        <v>94.50014532961838</v>
       </c>
       <c r="O2" t="n">
-        <v>9.695385927692818</v>
+        <v>9.721118522557905</v>
       </c>
       <c r="P2" t="n">
-        <v>401.3505850573251</v>
+        <v>401.240311279249</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30076,28 +30161,28 @@
         <v>0.0361</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07403645069990841</v>
+        <v>0.08442917630301316</v>
       </c>
       <c r="J3" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00222013908446117</v>
+        <v>0.002888655472212176</v>
       </c>
       <c r="M3" t="n">
-        <v>8.577553189515728</v>
+        <v>8.598312331075693</v>
       </c>
       <c r="N3" t="n">
-        <v>123.7584092195913</v>
+        <v>124.1178107485713</v>
       </c>
       <c r="O3" t="n">
-        <v>11.12467569053549</v>
+        <v>11.14081732857026</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5399397290838</v>
+        <v>380.4328067797174</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30154,28 +30239,28 @@
         <v>0.0317</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2107083905530089</v>
+        <v>0.2168174080272504</v>
       </c>
       <c r="J4" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01538350380621989</v>
+        <v>0.0163624956071009</v>
       </c>
       <c r="M4" t="n">
-        <v>9.061091487604443</v>
+        <v>9.060018725821765</v>
       </c>
       <c r="N4" t="n">
-        <v>141.2307939464803</v>
+        <v>141.0385315463632</v>
       </c>
       <c r="O4" t="n">
-        <v>11.88405629179197</v>
+        <v>11.87596444699811</v>
       </c>
       <c r="P4" t="n">
-        <v>370.1167005417775</v>
+        <v>370.0534444321492</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30232,28 +30317,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2633555004833873</v>
+        <v>0.2743317751378253</v>
       </c>
       <c r="J5" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03469956677602082</v>
+        <v>0.03747531028610873</v>
       </c>
       <c r="M5" t="n">
-        <v>7.21052199179024</v>
+        <v>7.238844929353856</v>
       </c>
       <c r="N5" t="n">
-        <v>95.19110380272524</v>
+        <v>95.74525979047201</v>
       </c>
       <c r="O5" t="n">
-        <v>9.756592837805892</v>
+        <v>9.784950679000483</v>
       </c>
       <c r="P5" t="n">
-        <v>381.3140070125904</v>
+        <v>381.1994099548631</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30310,28 +30395,28 @@
         <v>0.0456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2097593716142175</v>
+        <v>0.2132638515385312</v>
       </c>
       <c r="J6" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02962957615188588</v>
+        <v>0.03076799233451211</v>
       </c>
       <c r="M6" t="n">
-        <v>6.655612694532994</v>
+        <v>6.650603119985638</v>
       </c>
       <c r="N6" t="n">
-        <v>71.21887897097486</v>
+        <v>71.08625428028434</v>
       </c>
       <c r="O6" t="n">
-        <v>8.439127856062784</v>
+        <v>8.431266469533764</v>
       </c>
       <c r="P6" t="n">
-        <v>399.1599548254973</v>
+        <v>399.1232111668253</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30388,28 +30473,28 @@
         <v>0.0427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1503924170704194</v>
+        <v>0.1573441868370601</v>
       </c>
       <c r="J7" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01415715408237139</v>
+        <v>0.01551439835600243</v>
       </c>
       <c r="M7" t="n">
-        <v>6.800061374339081</v>
+        <v>6.815534670563605</v>
       </c>
       <c r="N7" t="n">
-        <v>77.6529556135183</v>
+        <v>77.75260009012536</v>
       </c>
       <c r="O7" t="n">
-        <v>8.81209144377873</v>
+        <v>8.817743480626172</v>
       </c>
       <c r="P7" t="n">
-        <v>415.3504839631791</v>
+        <v>415.2772084450028</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30466,28 +30551,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05817075464810297</v>
+        <v>0.06268539683747792</v>
       </c>
       <c r="J8" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K8" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001946494717755209</v>
+        <v>0.002271410929139406</v>
       </c>
       <c r="M8" t="n">
-        <v>7.271427205932874</v>
+        <v>7.270105038152153</v>
       </c>
       <c r="N8" t="n">
-        <v>87.13013322120737</v>
+        <v>87.00517722569776</v>
       </c>
       <c r="O8" t="n">
-        <v>9.334352319320681</v>
+        <v>9.327656577388437</v>
       </c>
       <c r="P8" t="n">
-        <v>418.4530385681032</v>
+        <v>418.4059426991833</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30544,28 +30629,28 @@
         <v>0.0483</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.017538212191651</v>
+        <v>-0.00931010657622486</v>
       </c>
       <c r="J9" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K9" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002190732971993903</v>
+        <v>6.174170874684304e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>6.57412485794655</v>
+        <v>6.594434273012777</v>
       </c>
       <c r="N9" t="n">
-        <v>70.71276605991082</v>
+        <v>70.98023956519211</v>
       </c>
       <c r="O9" t="n">
-        <v>8.409088301350558</v>
+        <v>8.424977125499636</v>
       </c>
       <c r="P9" t="n">
-        <v>407.0315903892985</v>
+        <v>406.9456301877186</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30622,28 +30707,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03083347058927615</v>
+        <v>-0.02697578437449541</v>
       </c>
       <c r="J10" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K10" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006790040746036397</v>
+        <v>0.0005227264625413675</v>
       </c>
       <c r="M10" t="n">
-        <v>6.667296778057893</v>
+        <v>6.664679185070299</v>
       </c>
       <c r="N10" t="n">
-        <v>69.06123678252357</v>
+        <v>68.94338321829183</v>
       </c>
       <c r="O10" t="n">
-        <v>8.310309066606582</v>
+        <v>8.303215233768894</v>
       </c>
       <c r="P10" t="n">
-        <v>395.8016450252294</v>
+        <v>395.76095039355</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30700,28 +30785,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08524626744286191</v>
+        <v>-0.07649587848479503</v>
       </c>
       <c r="J11" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K11" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005433880955356685</v>
+        <v>0.00437573630774446</v>
       </c>
       <c r="M11" t="n">
-        <v>6.367406725061342</v>
+        <v>6.386574113836231</v>
       </c>
       <c r="N11" t="n">
-        <v>66.04967865692774</v>
+        <v>66.37314356917963</v>
       </c>
       <c r="O11" t="n">
-        <v>8.127095339475705</v>
+        <v>8.146971435397305</v>
       </c>
       <c r="P11" t="n">
-        <v>390.070502329343</v>
+        <v>389.9784002995472</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30778,28 +30863,28 @@
         <v>0.0484</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08639453564976141</v>
+        <v>-0.08029091927499291</v>
       </c>
       <c r="J12" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K12" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004868954272140069</v>
+        <v>0.004224048360088606</v>
       </c>
       <c r="M12" t="n">
-        <v>6.981986676110602</v>
+        <v>6.984006838346004</v>
       </c>
       <c r="N12" t="n">
-        <v>74.29654868302818</v>
+        <v>74.31125291033185</v>
       </c>
       <c r="O12" t="n">
-        <v>8.619544575151762</v>
+        <v>8.620397491434595</v>
       </c>
       <c r="P12" t="n">
-        <v>387.3457217805208</v>
+        <v>387.2810246840949</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30856,28 +30941,28 @@
         <v>0.0302</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04828861482901659</v>
+        <v>-0.04438012812118112</v>
       </c>
       <c r="J13" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K13" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007921900088725398</v>
+        <v>0.0006734233292895464</v>
       </c>
       <c r="M13" t="n">
-        <v>9.253459077818665</v>
+        <v>9.240914962344235</v>
       </c>
       <c r="N13" t="n">
-        <v>143.6211369257907</v>
+        <v>143.2643508284208</v>
       </c>
       <c r="O13" t="n">
-        <v>11.9842036417023</v>
+        <v>11.96930870302963</v>
       </c>
       <c r="P13" t="n">
-        <v>387.4171789453388</v>
+        <v>387.3754125332812</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30934,28 +31019,28 @@
         <v>0.0255</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07486119542135027</v>
+        <v>-0.06848685386979841</v>
       </c>
       <c r="J14" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K14" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00176761392136171</v>
+        <v>0.001487351147314908</v>
       </c>
       <c r="M14" t="n">
-        <v>9.677278227387397</v>
+        <v>9.67577673401502</v>
       </c>
       <c r="N14" t="n">
-        <v>153.1037557450357</v>
+        <v>152.9014149380067</v>
       </c>
       <c r="O14" t="n">
-        <v>12.37351024346106</v>
+        <v>12.36533116976681</v>
       </c>
       <c r="P14" t="n">
-        <v>385.6853240650235</v>
+        <v>385.6168498661459</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31012,28 +31097,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09578372667023582</v>
+        <v>-0.09343999296375635</v>
       </c>
       <c r="J15" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K15" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002952188571886838</v>
+        <v>0.002829128721308805</v>
       </c>
       <c r="M15" t="n">
-        <v>9.528848232938715</v>
+        <v>9.507691453237648</v>
       </c>
       <c r="N15" t="n">
-        <v>151.5071314189769</v>
+        <v>151.0498716953446</v>
       </c>
       <c r="O15" t="n">
-        <v>12.30882331577543</v>
+        <v>12.29023481042346</v>
       </c>
       <c r="P15" t="n">
-        <v>378.5836065095738</v>
+        <v>378.5585836095079</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31090,28 +31175,28 @@
         <v>0.0305</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02194471852064654</v>
+        <v>-0.01755471210296456</v>
       </c>
       <c r="J16" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K16" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001731168484158108</v>
+        <v>0.000111460045164824</v>
       </c>
       <c r="M16" t="n">
-        <v>9.10661394223848</v>
+        <v>9.09796779531268</v>
       </c>
       <c r="N16" t="n">
-        <v>137.2776470153255</v>
+        <v>136.9686528176304</v>
       </c>
       <c r="O16" t="n">
-        <v>11.71655440030581</v>
+        <v>11.70336074884605</v>
       </c>
       <c r="P16" t="n">
-        <v>374.3429583379701</v>
+        <v>374.2964110833422</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31168,28 +31253,28 @@
         <v>0.0359</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0007740056063665047</v>
+        <v>-0.0001806812476785996</v>
       </c>
       <c r="J17" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K17" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L17" t="n">
-        <v>2.394739523348122e-07</v>
+        <v>1.314626174586664e-08</v>
       </c>
       <c r="M17" t="n">
-        <v>8.70003290005239</v>
+        <v>8.674643060495184</v>
       </c>
       <c r="N17" t="n">
-        <v>124.8101165579867</v>
+        <v>124.4072630408152</v>
       </c>
       <c r="O17" t="n">
-        <v>11.17184481444254</v>
+        <v>11.15380038555537</v>
       </c>
       <c r="P17" t="n">
-        <v>367.8630880164986</v>
+        <v>367.8569280627607</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31246,28 +31331,28 @@
         <v>0.0304</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.05372241497202557</v>
+        <v>-0.05070084346616707</v>
       </c>
       <c r="J18" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K18" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001406786506491065</v>
+        <v>0.001261849687755445</v>
       </c>
       <c r="M18" t="n">
-        <v>7.996775249256419</v>
+        <v>7.984835979188678</v>
       </c>
       <c r="N18" t="n">
-        <v>102.4373128661381</v>
+        <v>102.1634678237893</v>
       </c>
       <c r="O18" t="n">
-        <v>10.12113199529273</v>
+        <v>10.10759456170405</v>
       </c>
       <c r="P18" t="n">
-        <v>364.0584505034108</v>
+        <v>364.0271911159265</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31324,28 +31409,28 @@
         <v>0.0303</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1250716563899309</v>
+        <v>-0.1227356066129954</v>
       </c>
       <c r="J19" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K19" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006170678531951523</v>
+        <v>0.005984870079063898</v>
       </c>
       <c r="M19" t="n">
-        <v>8.788632621723742</v>
+        <v>8.772150248324392</v>
       </c>
       <c r="N19" t="n">
-        <v>124.0169735194712</v>
+        <v>123.6652884607172</v>
       </c>
       <c r="O19" t="n">
-        <v>11.13629083310378</v>
+        <v>11.12048957828374</v>
       </c>
       <c r="P19" t="n">
-        <v>366.1281809790616</v>
+        <v>366.1037865705215</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31402,28 +31487,28 @@
         <v>0.031</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1865711617173671</v>
+        <v>-0.1846513481473571</v>
       </c>
       <c r="J20" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K20" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01261386547387322</v>
+        <v>0.01244493530716406</v>
       </c>
       <c r="M20" t="n">
-        <v>9.174661063102468</v>
+        <v>9.154706071232763</v>
       </c>
       <c r="N20" t="n">
-        <v>134.0087868293402</v>
+        <v>133.6138128057458</v>
       </c>
       <c r="O20" t="n">
-        <v>11.57621642979001</v>
+        <v>11.55914412081387</v>
       </c>
       <c r="P20" t="n">
-        <v>373.4429628996347</v>
+        <v>373.4228805847492</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31480,28 +31565,28 @@
         <v>0.0308</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1694613020805824</v>
+        <v>-0.1707472818618112</v>
       </c>
       <c r="J21" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K21" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01084252347348691</v>
+        <v>0.01108773200282409</v>
       </c>
       <c r="M21" t="n">
-        <v>8.950944361128393</v>
+        <v>8.928543062497074</v>
       </c>
       <c r="N21" t="n">
-        <v>128.1097752038242</v>
+        <v>127.7201145855769</v>
       </c>
       <c r="O21" t="n">
-        <v>11.31855888370177</v>
+        <v>11.30133242523097</v>
       </c>
       <c r="P21" t="n">
-        <v>366.5766965367675</v>
+        <v>366.5899998326638</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31558,28 +31643,28 @@
         <v>0.0357</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1675361172749316</v>
+        <v>-0.1703870283029929</v>
       </c>
       <c r="J22" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K22" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01378389278167247</v>
+        <v>0.01434740680743185</v>
       </c>
       <c r="M22" t="n">
-        <v>7.859306396206283</v>
+        <v>7.847007030608371</v>
       </c>
       <c r="N22" t="n">
-        <v>99.72757188320723</v>
+        <v>99.46425380761097</v>
       </c>
       <c r="O22" t="n">
-        <v>9.986369304367189</v>
+        <v>9.973176715952194</v>
       </c>
       <c r="P22" t="n">
-        <v>365.8151755678819</v>
+        <v>365.8446636885528</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31617,7 +31702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W372"/>
+  <dimension ref="A1:W373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70365,6 +70450,123 @@
         </is>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:20+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-37.61799995144807,177.94401967826516</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-37.61793758336153,177.94493616719885</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-37.6178616352137,177.94584725733193</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-37.61749718166297,177.94664360380506</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>-37.61726266461249,177.9474916278195</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>-37.61691352366481,177.94825042474005</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>-37.61672446008455,177.94897855726376</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>-37.6164236537521,177.94970985816167</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>-37.616163024735116,177.9505784526515</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>-37.615767449786496,177.95132510790955</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>-37.61542231883141,177.952117348553</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>-37.61505733482796,177.95285847570122</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>-37.61460152222997,177.9534840347225</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>-37.61417746061182,177.95420949407048</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>-37.61366180484536,177.95481868025465</t>
+        </is>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>-37.61319371850075,177.95549862060102</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>-37.61263587407483,177.95605182563352</t>
+        </is>
+      </c>
+      <c r="S373" t="inlineStr">
+        <is>
+          <t>-37.612070561898435,177.9565966066519</t>
+        </is>
+      </c>
+      <c r="T373" t="inlineStr">
+        <is>
+          <t>-37.61148211822637,177.95706764374864</t>
+        </is>
+      </c>
+      <c r="U373" t="inlineStr">
+        <is>
+          <t>-37.610876780419076,177.95753481570966</t>
+        </is>
+      </c>
+      <c r="V373" t="inlineStr">
+        <is>
+          <t>-37.61023246148929,177.95792035278802</t>
+        </is>
+      </c>
+      <c r="W373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W373"/>
+  <dimension ref="A1:W374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26061,6 +26061,73 @@
         </is>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>375.9928571428572</v>
+      </c>
+      <c r="C374" t="n">
+        <v>363.9228571428571</v>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="n">
+        <v>381.6066666666667</v>
+      </c>
+      <c r="F374" t="n">
+        <v>398.47</v>
+      </c>
+      <c r="G374" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="H374" t="n">
+        <v>418.59</v>
+      </c>
+      <c r="I374" t="n">
+        <v>413.9566666666667</v>
+      </c>
+      <c r="J374" t="n">
+        <v>397</v>
+      </c>
+      <c r="K374" t="n">
+        <v>390.8</v>
+      </c>
+      <c r="L374" t="n">
+        <v>411.9366666666667</v>
+      </c>
+      <c r="M374" t="n">
+        <v>423.89</v>
+      </c>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="n">
+        <v>376.5928571428572</v>
+      </c>
+      <c r="R374" t="n">
+        <v>368.01</v>
+      </c>
+      <c r="S374" t="n">
+        <v>387.9</v>
+      </c>
+      <c r="T374" t="n">
+        <v>385.07</v>
+      </c>
+      <c r="U374" t="n">
+        <v>359.49</v>
+      </c>
+      <c r="V374" t="n">
+        <v>349.5928571428572</v>
+      </c>
+      <c r="W374" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26072,7 +26139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29910,6 +29977,16 @@
       </c>
       <c r="B383" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -30083,28 +30160,28 @@
         <v>0.0356</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1601519627530024</v>
+        <v>-0.1742261841970007</v>
       </c>
       <c r="J2" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K2" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01352041617206057</v>
+        <v>0.01584550125918949</v>
       </c>
       <c r="M2" t="n">
-        <v>7.416025761735539</v>
+        <v>7.454921328093617</v>
       </c>
       <c r="N2" t="n">
-        <v>94.50014532961838</v>
+        <v>95.59104858887343</v>
       </c>
       <c r="O2" t="n">
-        <v>9.721118522557905</v>
+        <v>9.777067484111656</v>
       </c>
       <c r="P2" t="n">
-        <v>401.240311279249</v>
+        <v>401.3854971854771</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30161,28 +30238,28 @@
         <v>0.0361</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08442917630301316</v>
+        <v>0.07197628563823485</v>
       </c>
       <c r="J3" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K3" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002888655472212176</v>
+        <v>0.002097796168594734</v>
       </c>
       <c r="M3" t="n">
-        <v>8.598312331075693</v>
+        <v>8.630720090707548</v>
       </c>
       <c r="N3" t="n">
-        <v>124.1178107485713</v>
+        <v>124.8142629027037</v>
       </c>
       <c r="O3" t="n">
-        <v>11.14081732857026</v>
+        <v>11.17203038407539</v>
       </c>
       <c r="P3" t="n">
-        <v>380.4328067797174</v>
+        <v>380.5614151773734</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30242,7 +30319,7 @@
         <v>0.2168174080272504</v>
       </c>
       <c r="J4" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K4" t="n">
         <v>317</v>
@@ -30317,28 +30394,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2743317751378253</v>
+        <v>0.2699796135779003</v>
       </c>
       <c r="J5" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K5" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03747531028610873</v>
+        <v>0.03653506235562021</v>
       </c>
       <c r="M5" t="n">
-        <v>7.238844929353856</v>
+        <v>7.237112508079468</v>
       </c>
       <c r="N5" t="n">
-        <v>95.74525979047201</v>
+        <v>95.58742853112042</v>
       </c>
       <c r="O5" t="n">
-        <v>9.784950679000483</v>
+        <v>9.776882352320724</v>
       </c>
       <c r="P5" t="n">
-        <v>381.1994099548631</v>
+        <v>381.2449314800888</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30395,28 +30472,28 @@
         <v>0.0456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2132638515385312</v>
+        <v>0.2092520024775102</v>
       </c>
       <c r="J6" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K6" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03076799233451211</v>
+        <v>0.02980836216991123</v>
       </c>
       <c r="M6" t="n">
-        <v>6.650603119985638</v>
+        <v>6.6499628442916</v>
       </c>
       <c r="N6" t="n">
-        <v>71.08625428028434</v>
+        <v>70.98278485790547</v>
       </c>
       <c r="O6" t="n">
-        <v>8.431266469533764</v>
+        <v>8.425128180502981</v>
       </c>
       <c r="P6" t="n">
-        <v>399.1232111668253</v>
+        <v>399.1653525418191</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30473,28 +30550,28 @@
         <v>0.0427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1573441868370601</v>
+        <v>0.1541685691181092</v>
       </c>
       <c r="J7" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K7" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01551439835600243</v>
+        <v>0.01499206441885081</v>
       </c>
       <c r="M7" t="n">
-        <v>6.815534670563605</v>
+        <v>6.807454413872586</v>
       </c>
       <c r="N7" t="n">
-        <v>77.75260009012536</v>
+        <v>77.58243284515336</v>
       </c>
       <c r="O7" t="n">
-        <v>8.817743480626172</v>
+        <v>8.808089057517151</v>
       </c>
       <c r="P7" t="n">
-        <v>415.2772084450028</v>
+        <v>415.3107438057966</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30551,28 +30628,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06268539683747792</v>
+        <v>0.06175527326023122</v>
       </c>
       <c r="J8" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K8" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002271410929139406</v>
+        <v>0.00221966851090083</v>
       </c>
       <c r="M8" t="n">
-        <v>7.270105038152153</v>
+        <v>7.251855081458572</v>
       </c>
       <c r="N8" t="n">
-        <v>87.00517722569776</v>
+        <v>86.73962997869239</v>
       </c>
       <c r="O8" t="n">
-        <v>9.327656577388437</v>
+        <v>9.313411296549315</v>
       </c>
       <c r="P8" t="n">
-        <v>418.4059426991833</v>
+        <v>418.4156640976524</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30629,28 +30706,28 @@
         <v>0.0483</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.00931010657622486</v>
+        <v>-0.004565465431167749</v>
       </c>
       <c r="J9" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L9" t="n">
-        <v>6.174170874684304e-05</v>
+        <v>1.491554541221962e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>6.594434273012777</v>
+        <v>6.597397226112466</v>
       </c>
       <c r="N9" t="n">
-        <v>70.98023956519211</v>
+        <v>70.92014639259169</v>
       </c>
       <c r="O9" t="n">
-        <v>8.424977125499636</v>
+        <v>8.421410000266683</v>
       </c>
       <c r="P9" t="n">
-        <v>406.9456301877186</v>
+        <v>406.8959664091867</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30707,28 +30784,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02697578437449541</v>
+        <v>-0.02567719483349301</v>
       </c>
       <c r="J10" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K10" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005227264625413675</v>
+        <v>0.0004769075152398772</v>
       </c>
       <c r="M10" t="n">
-        <v>6.664679185070299</v>
+        <v>6.64965280262293</v>
       </c>
       <c r="N10" t="n">
-        <v>68.94338321829183</v>
+        <v>68.73495062388633</v>
       </c>
       <c r="O10" t="n">
-        <v>8.303215233768894</v>
+        <v>8.290654414694075</v>
       </c>
       <c r="P10" t="n">
-        <v>395.76095039355</v>
+        <v>395.7472258588695</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30785,28 +30862,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07649587848479503</v>
+        <v>-0.07462158843103245</v>
       </c>
       <c r="J11" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K11" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00437573630774446</v>
+        <v>0.004192604501276675</v>
       </c>
       <c r="M11" t="n">
-        <v>6.386574113836231</v>
+        <v>6.37447895252569</v>
       </c>
       <c r="N11" t="n">
-        <v>66.37314356917963</v>
+        <v>66.1845631031332</v>
       </c>
       <c r="O11" t="n">
-        <v>8.146971435397305</v>
+        <v>8.135389548333453</v>
       </c>
       <c r="P11" t="n">
-        <v>389.9784002995472</v>
+        <v>389.9586350431155</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30863,28 +30940,28 @@
         <v>0.0484</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08029091927499291</v>
+        <v>-0.06213419769192515</v>
       </c>
       <c r="J12" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K12" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004224048360088606</v>
+        <v>0.002477006941063675</v>
       </c>
       <c r="M12" t="n">
-        <v>6.984006838346004</v>
+        <v>7.036866814915163</v>
       </c>
       <c r="N12" t="n">
-        <v>74.31125291033185</v>
+        <v>76.32585521421753</v>
       </c>
       <c r="O12" t="n">
-        <v>8.620397491434595</v>
+        <v>8.736466975512329</v>
       </c>
       <c r="P12" t="n">
-        <v>387.2810246840949</v>
+        <v>387.088213290297</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30941,28 +31018,28 @@
         <v>0.0302</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04438012812118112</v>
+        <v>-0.01904639921435908</v>
       </c>
       <c r="J13" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K13" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006734233292895464</v>
+        <v>0.0001211405156599232</v>
       </c>
       <c r="M13" t="n">
-        <v>9.240914962344235</v>
+        <v>9.328982916396301</v>
       </c>
       <c r="N13" t="n">
-        <v>143.2643508284208</v>
+        <v>147.3175086796256</v>
       </c>
       <c r="O13" t="n">
-        <v>11.96930870302963</v>
+        <v>12.13744242744844</v>
       </c>
       <c r="P13" t="n">
-        <v>387.3754125332812</v>
+        <v>387.1041819530171</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31022,7 +31099,7 @@
         <v>-0.06848685386979841</v>
       </c>
       <c r="J14" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K14" t="n">
         <v>315</v>
@@ -31100,7 +31177,7 @@
         <v>-0.09343999296375635</v>
       </c>
       <c r="J15" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K15" t="n">
         <v>306</v>
@@ -31178,7 +31255,7 @@
         <v>-0.01755471210296456</v>
       </c>
       <c r="J16" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K16" t="n">
         <v>309</v>
@@ -31253,28 +31330,28 @@
         <v>0.0359</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0001806812476785996</v>
+        <v>0.005812680091716476</v>
       </c>
       <c r="J17" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K17" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L17" t="n">
-        <v>1.314626174586664e-08</v>
+        <v>1.367927782758294e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>8.674643060495184</v>
+        <v>8.675903540242127</v>
       </c>
       <c r="N17" t="n">
-        <v>124.4072630408152</v>
+        <v>124.2492856989547</v>
       </c>
       <c r="O17" t="n">
-        <v>11.15380038555537</v>
+        <v>11.14671636397709</v>
       </c>
       <c r="P17" t="n">
-        <v>367.8569280627607</v>
+        <v>367.7945888740252</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31331,28 +31408,28 @@
         <v>0.0304</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.05070084346616707</v>
+        <v>-0.04704298053635224</v>
       </c>
       <c r="J18" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K18" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001261849687755445</v>
+        <v>0.001093686329018961</v>
       </c>
       <c r="M18" t="n">
-        <v>7.984835979188678</v>
+        <v>7.975884857093954</v>
       </c>
       <c r="N18" t="n">
-        <v>102.1634678237893</v>
+        <v>101.9208646950128</v>
       </c>
       <c r="O18" t="n">
-        <v>10.10759456170405</v>
+        <v>10.09558639678809</v>
       </c>
       <c r="P18" t="n">
-        <v>364.0271911159265</v>
+        <v>363.9892789870534</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31409,28 +31486,28 @@
         <v>0.0303</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1227356066129954</v>
+        <v>-0.1059751477017713</v>
       </c>
       <c r="J19" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K19" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005984870079063898</v>
+        <v>0.004431949572145655</v>
       </c>
       <c r="M19" t="n">
-        <v>8.772150248324392</v>
+        <v>8.824003093132285</v>
       </c>
       <c r="N19" t="n">
-        <v>123.6652884607172</v>
+        <v>125.2057337475734</v>
       </c>
       <c r="O19" t="n">
-        <v>11.12048957828374</v>
+        <v>11.18953679772194</v>
       </c>
       <c r="P19" t="n">
-        <v>366.1037865705215</v>
+        <v>365.9284455646289</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31487,28 +31564,28 @@
         <v>0.031</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1846513481473571</v>
+        <v>-0.1736490622309703</v>
       </c>
       <c r="J20" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K20" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01244493530716406</v>
+        <v>0.01103230937972366</v>
       </c>
       <c r="M20" t="n">
-        <v>9.154706071232763</v>
+        <v>9.176196142740258</v>
       </c>
       <c r="N20" t="n">
-        <v>133.6138128057458</v>
+        <v>134.0288929644065</v>
       </c>
       <c r="O20" t="n">
-        <v>11.55914412081387</v>
+        <v>11.57708482150867</v>
       </c>
       <c r="P20" t="n">
-        <v>373.4228805847492</v>
+        <v>373.3075807766636</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31565,28 +31642,28 @@
         <v>0.0308</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1707472818618112</v>
+        <v>-0.1726016425401546</v>
       </c>
       <c r="J21" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K21" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01108773200282409</v>
+        <v>0.01140979652259588</v>
       </c>
       <c r="M21" t="n">
-        <v>8.928543062497074</v>
+        <v>8.908702812780817</v>
       </c>
       <c r="N21" t="n">
-        <v>127.7201145855769</v>
+        <v>127.3446723646738</v>
       </c>
       <c r="O21" t="n">
-        <v>11.30133242523097</v>
+        <v>11.28470967126198</v>
       </c>
       <c r="P21" t="n">
-        <v>366.5899998326638</v>
+        <v>366.6092165640006</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31643,28 +31720,28 @@
         <v>0.0357</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1703870283029929</v>
+        <v>-0.1784798329435928</v>
       </c>
       <c r="J22" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K22" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01434740680743185</v>
+        <v>0.01576647302749978</v>
       </c>
       <c r="M22" t="n">
-        <v>7.847007030608371</v>
+        <v>7.858303150305378</v>
       </c>
       <c r="N22" t="n">
-        <v>99.46425380761097</v>
+        <v>99.5902823096245</v>
       </c>
       <c r="O22" t="n">
-        <v>9.973176715952194</v>
+        <v>9.9794930888109</v>
       </c>
       <c r="P22" t="n">
-        <v>365.8446636885528</v>
+        <v>365.9285230288394</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31702,7 +31779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W373"/>
+  <dimension ref="A1:W374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70567,6 +70644,107 @@
         </is>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>-37.61831657397763,177.94414559981897</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-37.618229255905355,177.94505216859054</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-37.61769603963439,177.94672269436956</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>-37.617360659675185,177.94753060337274</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>-37.61704187811308,177.9483107931524</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>-37.6167890962268,177.94902479098278</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>-37.616461071011386,177.9497436694388</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>-37.616190186990224,177.95060299745745</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>-37.615840758348895,177.95139135258364</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>-37.615291725255055,177.95199933839717</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>-37.61483665694483,177.95262738356953</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>-37.61315134561587,177.95542708547418</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>-37.61263077009611,177.95604261076855</t>
+        </is>
+      </c>
+      <c r="S374" t="inlineStr">
+        <is>
+          <t>-37.61196133988263,177.95639561776753</t>
+        </is>
+      </c>
+      <c r="T374" t="inlineStr">
+        <is>
+          <t>-37.61142571946427,177.9569314498585</t>
+        </is>
+      </c>
+      <c r="U374" t="inlineStr">
+        <is>
+          <t>-37.610879597006424,177.9575439499607</t>
+        </is>
+      </c>
+      <c r="V374" t="inlineStr">
+        <is>
+          <t>-37.610257680600036,177.9580021388201</t>
+        </is>
+      </c>
+      <c r="W374" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W374"/>
+  <dimension ref="A1:W377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26103,7 +26103,9 @@
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
-      <c r="P374" t="inlineStr"/>
+      <c r="P374" t="n">
+        <v>420.8</v>
+      </c>
       <c r="Q374" t="n">
         <v>376.5928571428572</v>
       </c>
@@ -26125,6 +26127,231 @@
       <c r="W374" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>403.9928571428572</v>
+      </c>
+      <c r="C375" t="n">
+        <v>397.5128571428572</v>
+      </c>
+      <c r="D375" t="n">
+        <v>389.4166666666667</v>
+      </c>
+      <c r="E375" t="n">
+        <v>400.1644444444445</v>
+      </c>
+      <c r="F375" t="n">
+        <v>412.26</v>
+      </c>
+      <c r="G375" t="n">
+        <v>427.39</v>
+      </c>
+      <c r="H375" t="n">
+        <v>423.4</v>
+      </c>
+      <c r="I375" t="n">
+        <v>414.5344444444444</v>
+      </c>
+      <c r="J375" t="n">
+        <v>397.39</v>
+      </c>
+      <c r="K375" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="L375" t="n">
+        <v>396.7644444444445</v>
+      </c>
+      <c r="M375" t="n">
+        <v>393.7600000000001</v>
+      </c>
+      <c r="N375" t="n">
+        <v>389.89</v>
+      </c>
+      <c r="O375" t="n">
+        <v>379.38</v>
+      </c>
+      <c r="P375" t="n">
+        <v>384.4866666666667</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>371.8628571428572</v>
+      </c>
+      <c r="R375" t="n">
+        <v>375.9266666666667</v>
+      </c>
+      <c r="S375" t="n">
+        <v>361.6466666666667</v>
+      </c>
+      <c r="T375" t="n">
+        <v>372.3266666666667</v>
+      </c>
+      <c r="U375" t="n">
+        <v>371.2266666666667</v>
+      </c>
+      <c r="V375" t="n">
+        <v>367.9128571428572</v>
+      </c>
+      <c r="W375" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>409.6</v>
+      </c>
+      <c r="C376" t="n">
+        <v>370.7</v>
+      </c>
+      <c r="D376" t="n">
+        <v>357.9566666666667</v>
+      </c>
+      <c r="E376" t="n">
+        <v>370.4544444444445</v>
+      </c>
+      <c r="F376" t="n">
+        <v>380.46</v>
+      </c>
+      <c r="G376" t="n">
+        <v>393.47</v>
+      </c>
+      <c r="H376" t="n">
+        <v>377.43</v>
+      </c>
+      <c r="I376" t="n">
+        <v>383.6144444444445</v>
+      </c>
+      <c r="J376" t="n">
+        <v>370.26</v>
+      </c>
+      <c r="K376" t="n">
+        <v>361.55</v>
+      </c>
+      <c r="L376" t="n">
+        <v>358.8744444444445</v>
+      </c>
+      <c r="M376" t="n">
+        <v>332.05</v>
+      </c>
+      <c r="N376" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O376" t="n">
+        <v>355.2</v>
+      </c>
+      <c r="P376" t="n">
+        <v>346.0366666666667</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>348.97</v>
+      </c>
+      <c r="R376" t="n">
+        <v>352.2566666666667</v>
+      </c>
+      <c r="S376" t="n">
+        <v>368.1666666666667</v>
+      </c>
+      <c r="T376" t="n">
+        <v>357.7466666666667</v>
+      </c>
+      <c r="U376" t="n">
+        <v>372.6166666666667</v>
+      </c>
+      <c r="V376" t="n">
+        <v>385.22</v>
+      </c>
+      <c r="W376" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>386.4757142857143</v>
+      </c>
+      <c r="C377" t="n">
+        <v>376.1157142857143</v>
+      </c>
+      <c r="D377" t="n">
+        <v>366.54</v>
+      </c>
+      <c r="E377" t="n">
+        <v>381.9266666666667</v>
+      </c>
+      <c r="F377" t="n">
+        <v>400.46</v>
+      </c>
+      <c r="G377" t="n">
+        <v>413.36</v>
+      </c>
+      <c r="H377" t="n">
+        <v>403.33</v>
+      </c>
+      <c r="I377" t="n">
+        <v>389.1866666666667</v>
+      </c>
+      <c r="J377" t="n">
+        <v>383.85</v>
+      </c>
+      <c r="K377" t="n">
+        <v>369.73</v>
+      </c>
+      <c r="L377" t="n">
+        <v>369.3466666666667</v>
+      </c>
+      <c r="M377" t="n">
+        <v>366.63</v>
+      </c>
+      <c r="N377" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="O377" t="n">
+        <v>358.92</v>
+      </c>
+      <c r="P377" t="n">
+        <v>359.03</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>353.5957142857143</v>
+      </c>
+      <c r="R377" t="n">
+        <v>354.24</v>
+      </c>
+      <c r="S377" t="n">
+        <v>351.07</v>
+      </c>
+      <c r="T377" t="n">
+        <v>358.27</v>
+      </c>
+      <c r="U377" t="n">
+        <v>357.13</v>
+      </c>
+      <c r="V377" t="n">
+        <v>352.1857142857143</v>
+      </c>
+      <c r="W377" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -26139,7 +26366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B384"/>
+  <dimension ref="A1:B387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29987,6 +30214,36 @@
       </c>
       <c r="B384" t="n">
         <v>-0.24</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -30160,28 +30417,28 @@
         <v>0.0356</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1742261841970007</v>
+        <v>-0.1680656040212382</v>
       </c>
       <c r="J2" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K2" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01584550125918949</v>
+        <v>0.014923381853988</v>
       </c>
       <c r="M2" t="n">
-        <v>7.454921328093617</v>
+        <v>7.480738653462209</v>
       </c>
       <c r="N2" t="n">
-        <v>95.59104858887343</v>
+        <v>95.69384426018676</v>
       </c>
       <c r="O2" t="n">
-        <v>9.777067484111656</v>
+        <v>9.782323050287532</v>
       </c>
       <c r="P2" t="n">
-        <v>401.3854971854771</v>
+        <v>401.3217059352463</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30238,28 +30495,28 @@
         <v>0.0361</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07197628563823485</v>
+        <v>0.07001804293069051</v>
       </c>
       <c r="J3" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K3" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002097796168594734</v>
+        <v>0.002008137018356226</v>
       </c>
       <c r="M3" t="n">
-        <v>8.630720090707548</v>
+        <v>8.653279759363157</v>
       </c>
       <c r="N3" t="n">
-        <v>124.8142629027037</v>
+        <v>124.9091813369848</v>
       </c>
       <c r="O3" t="n">
-        <v>11.17203038407539</v>
+        <v>11.17627761542209</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5614151773734</v>
+        <v>380.5818865522204</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30316,28 +30573,28 @@
         <v>0.0317</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2168174080272504</v>
+        <v>0.2080359774422316</v>
       </c>
       <c r="J4" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K4" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0163624956071009</v>
+        <v>0.01521936372110222</v>
       </c>
       <c r="M4" t="n">
-        <v>9.060018725821765</v>
+        <v>9.102791313909011</v>
       </c>
       <c r="N4" t="n">
-        <v>141.0385315463632</v>
+        <v>141.5430467252257</v>
       </c>
       <c r="O4" t="n">
-        <v>11.87596444699811</v>
+        <v>11.89718650459955</v>
       </c>
       <c r="P4" t="n">
-        <v>370.0534444321492</v>
+        <v>370.1451734299525</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30394,28 +30651,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2699796135779003</v>
+        <v>0.2621453553219549</v>
       </c>
       <c r="J5" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03653506235562021</v>
+        <v>0.03469255478467848</v>
       </c>
       <c r="M5" t="n">
-        <v>7.237112508079468</v>
+        <v>7.280282098376087</v>
       </c>
       <c r="N5" t="n">
-        <v>95.58742853112042</v>
+        <v>96.22298454359471</v>
       </c>
       <c r="O5" t="n">
-        <v>9.776882352320724</v>
+        <v>9.80933150339995</v>
       </c>
       <c r="P5" t="n">
-        <v>381.2449314800888</v>
+        <v>381.3274328879336</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30472,28 +30729,28 @@
         <v>0.0456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2092520024775102</v>
+        <v>0.1960464205264072</v>
       </c>
       <c r="J6" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K6" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02980836216991123</v>
+        <v>0.02607724402124978</v>
       </c>
       <c r="M6" t="n">
-        <v>6.6499628442916</v>
+        <v>6.700969237422824</v>
       </c>
       <c r="N6" t="n">
-        <v>70.98278485790547</v>
+        <v>72.32734939729303</v>
       </c>
       <c r="O6" t="n">
-        <v>8.425128180502981</v>
+        <v>8.504548747422936</v>
       </c>
       <c r="P6" t="n">
-        <v>399.1653525418191</v>
+        <v>399.3049073552985</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30550,28 +30807,28 @@
         <v>0.0427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1541685691181092</v>
+        <v>0.1388527364656809</v>
       </c>
       <c r="J7" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K7" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01499206441885081</v>
+        <v>0.01208298081137549</v>
       </c>
       <c r="M7" t="n">
-        <v>6.807454413872586</v>
+        <v>6.85865014633968</v>
       </c>
       <c r="N7" t="n">
-        <v>77.58243284515336</v>
+        <v>79.21814844251294</v>
       </c>
       <c r="O7" t="n">
-        <v>8.808089057517151</v>
+        <v>8.900457765896816</v>
       </c>
       <c r="P7" t="n">
-        <v>415.3107438057966</v>
+        <v>415.4734728888303</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30628,28 +30885,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06175527326023122</v>
+        <v>0.02605714451222213</v>
       </c>
       <c r="J8" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K8" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00221966851090083</v>
+        <v>0.0003760665411352004</v>
       </c>
       <c r="M8" t="n">
-        <v>7.251855081458572</v>
+        <v>7.377806733029727</v>
       </c>
       <c r="N8" t="n">
-        <v>86.73962997869239</v>
+        <v>92.35115537344926</v>
       </c>
       <c r="O8" t="n">
-        <v>9.313411296549315</v>
+        <v>9.609950851770744</v>
       </c>
       <c r="P8" t="n">
-        <v>418.4156640976524</v>
+        <v>418.7910198362236</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30706,28 +30963,28 @@
         <v>0.0483</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.004565465431167749</v>
+        <v>-0.02581357826650415</v>
       </c>
       <c r="J9" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L9" t="n">
-        <v>1.491554541221962e-05</v>
+        <v>0.0004678069186750955</v>
       </c>
       <c r="M9" t="n">
-        <v>6.597397226112466</v>
+        <v>6.684675887670603</v>
       </c>
       <c r="N9" t="n">
-        <v>70.92014639259169</v>
+        <v>73.06665050865348</v>
       </c>
       <c r="O9" t="n">
-        <v>8.421410000266683</v>
+        <v>8.547903281428345</v>
       </c>
       <c r="P9" t="n">
-        <v>406.8959664091867</v>
+        <v>407.119823071959</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30784,28 +31041,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02567719483349301</v>
+        <v>-0.04794051331772598</v>
       </c>
       <c r="J10" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K10" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004769075152398772</v>
+        <v>0.001639884679933368</v>
       </c>
       <c r="M10" t="n">
-        <v>6.64965280262293</v>
+        <v>6.706437645895869</v>
       </c>
       <c r="N10" t="n">
-        <v>68.73495062388633</v>
+        <v>70.41186240835688</v>
       </c>
       <c r="O10" t="n">
-        <v>8.290654414694075</v>
+        <v>8.391177653247301</v>
       </c>
       <c r="P10" t="n">
-        <v>395.7472258588695</v>
+        <v>395.9839277440726</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30862,28 +31119,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07462158843103245</v>
+        <v>-0.10323786913014</v>
       </c>
       <c r="J11" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K11" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004192604501276675</v>
+        <v>0.00778148527659317</v>
       </c>
       <c r="M11" t="n">
-        <v>6.37447895252569</v>
+        <v>6.469625921813893</v>
       </c>
       <c r="N11" t="n">
-        <v>66.1845631031332</v>
+        <v>68.79571383985996</v>
       </c>
       <c r="O11" t="n">
-        <v>8.135389548333453</v>
+        <v>8.294318166061629</v>
       </c>
       <c r="P11" t="n">
-        <v>389.9586350431155</v>
+        <v>390.2622426358229</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30940,28 +31197,28 @@
         <v>0.0484</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06213419769192515</v>
+        <v>-0.08314693394873833</v>
       </c>
       <c r="J12" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K12" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002477006941063675</v>
+        <v>0.004327452479400251</v>
       </c>
       <c r="M12" t="n">
-        <v>7.036866814915163</v>
+        <v>7.151440361829499</v>
       </c>
       <c r="N12" t="n">
-        <v>76.32585521421753</v>
+        <v>79.02693652897247</v>
       </c>
       <c r="O12" t="n">
-        <v>8.736466975512329</v>
+        <v>8.88970958631228</v>
       </c>
       <c r="P12" t="n">
-        <v>387.088213290297</v>
+        <v>387.3127545826953</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31018,28 +31275,28 @@
         <v>0.0302</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01904639921435908</v>
+        <v>-0.06362055936486642</v>
       </c>
       <c r="J13" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K13" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001211405156599232</v>
+        <v>0.001283795489224193</v>
       </c>
       <c r="M13" t="n">
-        <v>9.328982916396301</v>
+        <v>9.509323919734094</v>
       </c>
       <c r="N13" t="n">
-        <v>147.3175086796256</v>
+        <v>156.6796884788121</v>
       </c>
       <c r="O13" t="n">
-        <v>12.13744242744844</v>
+        <v>12.5171757389122</v>
       </c>
       <c r="P13" t="n">
-        <v>387.1041819530171</v>
+        <v>387.584275431996</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31096,28 +31353,28 @@
         <v>0.0255</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06848685386979841</v>
+        <v>-0.08548653819830941</v>
       </c>
       <c r="J14" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K14" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001487351147314908</v>
+        <v>0.002336340210835841</v>
       </c>
       <c r="M14" t="n">
-        <v>9.67577673401502</v>
+        <v>9.705957730110068</v>
       </c>
       <c r="N14" t="n">
-        <v>152.9014149380067</v>
+        <v>153.2777861841892</v>
       </c>
       <c r="O14" t="n">
-        <v>12.36533116976681</v>
+        <v>12.38054062568308</v>
       </c>
       <c r="P14" t="n">
-        <v>385.6168498661459</v>
+        <v>385.8009275293814</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31174,28 +31431,28 @@
         <v>0.0302</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09343999296375635</v>
+        <v>-0.1170450451316918</v>
       </c>
       <c r="J15" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K15" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002829128721308805</v>
+        <v>0.004457156454930389</v>
       </c>
       <c r="M15" t="n">
-        <v>9.507691453237648</v>
+        <v>9.560052293764004</v>
       </c>
       <c r="N15" t="n">
-        <v>151.0498716953446</v>
+        <v>151.954739003918</v>
       </c>
       <c r="O15" t="n">
-        <v>12.29023481042346</v>
+        <v>12.32699229349633</v>
       </c>
       <c r="P15" t="n">
-        <v>378.5585836095079</v>
+        <v>378.8126289081193</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31252,28 +31509,28 @@
         <v>0.0305</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01755471210296456</v>
+        <v>-0.008099048042035826</v>
       </c>
       <c r="J16" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K16" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000111460045164824</v>
+        <v>2.263043517014562e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>9.09796779531268</v>
+        <v>9.302165524489071</v>
       </c>
       <c r="N16" t="n">
-        <v>136.9686528176304</v>
+        <v>145.7886917965922</v>
       </c>
       <c r="O16" t="n">
-        <v>11.70336074884605</v>
+        <v>12.07429881179823</v>
       </c>
       <c r="P16" t="n">
-        <v>374.2964110833422</v>
+        <v>374.1974624568527</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31330,28 +31587,28 @@
         <v>0.0359</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005812680091716476</v>
+        <v>-0.01398894866239057</v>
       </c>
       <c r="J17" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K17" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L17" t="n">
-        <v>1.367927782758294e-05</v>
+        <v>7.979657003742702e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>8.675903540242127</v>
+        <v>8.709490247735175</v>
       </c>
       <c r="N17" t="n">
-        <v>124.2492856989547</v>
+        <v>124.8889285422734</v>
       </c>
       <c r="O17" t="n">
-        <v>11.14671636397709</v>
+        <v>11.17537151696861</v>
       </c>
       <c r="P17" t="n">
-        <v>367.7945888740252</v>
+        <v>368.0018112700799</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31408,28 +31665,28 @@
         <v>0.0304</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04704298053635224</v>
+        <v>-0.0510644103794767</v>
       </c>
       <c r="J18" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K18" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001093686329018961</v>
+        <v>0.001302608126316329</v>
       </c>
       <c r="M18" t="n">
-        <v>7.975884857093954</v>
+        <v>8.002545280191587</v>
       </c>
       <c r="N18" t="n">
-        <v>101.9208646950128</v>
+        <v>102.0828580907234</v>
       </c>
       <c r="O18" t="n">
-        <v>10.09558639678809</v>
+        <v>10.10360619238119</v>
       </c>
       <c r="P18" t="n">
-        <v>363.9892789870534</v>
+        <v>364.0313318445733</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31486,28 +31743,28 @@
         <v>0.0303</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1059751477017713</v>
+        <v>-0.1116997639153905</v>
       </c>
       <c r="J19" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K19" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004431949572145655</v>
+        <v>0.00500655186791743</v>
       </c>
       <c r="M19" t="n">
-        <v>8.824003093132285</v>
+        <v>8.798892820730154</v>
       </c>
       <c r="N19" t="n">
-        <v>125.2057337475734</v>
+        <v>124.5787468144395</v>
       </c>
       <c r="O19" t="n">
-        <v>11.18953679772194</v>
+        <v>11.16148497353464</v>
       </c>
       <c r="P19" t="n">
-        <v>365.9284455646289</v>
+        <v>365.9887254788193</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31564,28 +31821,28 @@
         <v>0.031</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1736490622309703</v>
+        <v>-0.1855698139622284</v>
       </c>
       <c r="J20" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K20" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01103230937972366</v>
+        <v>0.01277788265042812</v>
       </c>
       <c r="M20" t="n">
-        <v>9.176196142740258</v>
+        <v>9.169397136774577</v>
       </c>
       <c r="N20" t="n">
-        <v>134.0288929644065</v>
+        <v>133.5344030049933</v>
       </c>
       <c r="O20" t="n">
-        <v>11.57708482150867</v>
+        <v>11.55570867601781</v>
       </c>
       <c r="P20" t="n">
-        <v>373.3075807766636</v>
+        <v>373.4332728254408</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31642,28 +31899,28 @@
         <v>0.0308</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1726016425401546</v>
+        <v>-0.1628088571991482</v>
       </c>
       <c r="J21" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K21" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01140979652259588</v>
+        <v>0.01033980697251113</v>
       </c>
       <c r="M21" t="n">
-        <v>8.908702812780817</v>
+        <v>8.903823261234555</v>
       </c>
       <c r="N21" t="n">
-        <v>127.3446723646738</v>
+        <v>126.829762194974</v>
       </c>
       <c r="O21" t="n">
-        <v>11.28470967126198</v>
+        <v>11.26187205552318</v>
       </c>
       <c r="P21" t="n">
-        <v>366.6092165640006</v>
+        <v>366.5072916573623</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31720,28 +31977,28 @@
         <v>0.0357</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1784798329435928</v>
+        <v>-0.1641747605463679</v>
       </c>
       <c r="J22" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K22" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01576647302749978</v>
+        <v>0.01337603588066594</v>
       </c>
       <c r="M22" t="n">
-        <v>7.858303150305378</v>
+        <v>7.910891943431849</v>
       </c>
       <c r="N22" t="n">
-        <v>99.5902823096245</v>
+        <v>100.8329331896316</v>
       </c>
       <c r="O22" t="n">
-        <v>9.9794930888109</v>
+        <v>10.04156029656903</v>
       </c>
       <c r="P22" t="n">
-        <v>365.9285230288394</v>
+        <v>365.7795885838274</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31779,7 +32036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W374"/>
+  <dimension ref="A1:W377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70708,7 +70965,11 @@
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
-      <c r="P374" t="inlineStr"/>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>-37.61342746278101,177.95446789180784</t>
+        </is>
+      </c>
       <c r="Q374" t="inlineStr">
         <is>
           <t>-37.61315134561587,177.95542708547418</t>
@@ -70742,6 +71003,357 @@
       <c r="W374" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>-37.618076513590985,177.94405012709768</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>-37.61794126999392,177.94493763340637</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>-37.61781988207812,177.94583065138036</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>-37.61753693421197,177.9466594143023</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>-37.617242431158566,177.9474835803881</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>-37.61693331585646,177.94825973350257</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>-37.61675150253638,177.9489979005023</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>-37.616456852240354,177.94973985723757</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>-37.61618733933475,177.9506004242108</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>-37.61585098065466,177.9514005898995</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>-37.61540250710511,177.95209944576098</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>-37.615044829302185,177.9528453799608</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>-37.61462250251203,177.95351152354527</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>-37.61417841481326,177.95421084773272</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>-37.613637458925915,177.95478223647405</t>
+        </is>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>-37.61317674787093,177.95546997027452</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>-37.61259009238419,177.9559691701938</t>
+        </is>
+      </c>
+      <c r="S375" t="inlineStr">
+        <is>
+          <t>-37.612094502771555,177.95664066249597</t>
+        </is>
+      </c>
+      <c r="T375" t="inlineStr">
+        <is>
+          <t>-37.61147863050426,177.957059221446</t>
+        </is>
+      </c>
+      <c r="U375" t="inlineStr">
+        <is>
+          <t>-37.61084145384948,177.95742025117585</t>
+        </is>
+      </c>
+      <c r="V375" t="inlineStr">
+        <is>
+          <t>-37.610198142601504,177.95780905641246</t>
+        </is>
+      </c>
+      <c r="W375" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>-37.61802844025848,177.94403100828163</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>-37.61817115167292,177.9450290598079</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>-37.618089605551305,177.945937925516</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>-37.61779165337379,177.94676072241927</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>-37.617515068300534,177.947592016531</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>-37.617218997067035,177.94839409718531</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>-37.617110791586356,177.9492548986354</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>-37.616682621175244,177.94994386928042</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>-37.61638543376247,177.95077943028915</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>-37.616054331332094,177.9515843470478</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>-37.61567916513847,177.95234944792435</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>-37.61547119072179,177.95329186764863</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>-37.61478872584393,177.95372931387487</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>-37.61432261829825,177.95441542033882</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>-37.61385981012796,177.955115079001</t>
+        </is>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>-37.61329969269258,177.95567753000287</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>-37.61271171430694,177.95618875001298</t>
+        </is>
+      </c>
+      <c r="S376" t="inlineStr">
+        <is>
+          <t>-37.61206143189955,177.9565798057017</t>
+        </is>
+      </c>
+      <c r="T376" t="inlineStr">
+        <is>
+          <t>-37.61153916730138,177.95720540866125</t>
+        </is>
+      </c>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>-37.61083693645985,177.9574056012563</t>
+        </is>
+      </c>
+      <c r="V376" t="inlineStr">
+        <is>
+          <t>-37.61014189596603,177.95762664920102</t>
+        </is>
+      </c>
+      <c r="W376" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>-37.61822669832329,177.94410985591983</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>-37.61812471972298,177.9450105932699</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>-37.618016016041544,177.9459086574804</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>-37.61769329610942,177.94672160320067</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>-37.61734359841907,177.94752381759443</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>-37.61705147942816,177.948315308909</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>-37.61690836430452,177.949110102759</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>-37.61664193444645,177.94990710332456</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>-37.616286204049786,177.95068976217496</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>-37.61599460395352,177.9515303744638</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>-37.61560270111472,177.95228035092057</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>-37.6152322738187,177.95304167183238</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>-37.61472889795043,177.95365092555832</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>-37.6143004331737,177.9543839475791</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>-37.61378467154279,177.95500260195723</t>
+        </is>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>-37.613274850583736,177.95563559057922</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>-37.612701523500306,177.9561703511703</t>
+        </is>
+      </c>
+      <c r="S377" t="inlineStr">
+        <is>
+          <t>-37.612148149872425,177.95673938377706</t>
+        </is>
+      </c>
+      <c r="T377" t="inlineStr">
+        <is>
+          <t>-37.61153699440195,177.9572001614254</t>
+        </is>
+      </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>-37.610887266786555,177.95756882323207</t>
+        </is>
+      </c>
+      <c r="V377" t="inlineStr">
+        <is>
+          <t>-37.61024925411823,177.9579748115597</t>
+        </is>
+      </c>
+      <c r="W377" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0210/nzd0210.xlsx
+++ b/data/nzd0210/nzd0210.xlsx
@@ -30411,10 +30411,10 @@
         <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0344</v>
+        <v>0.0347</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0356</v>
+        <v>0.0353</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1680286385409459</v>
@@ -30486,13 +30486,13 @@
         <v>0.9499490307851439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0331</v>
+        <v>0.0444</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0361</v>
+        <v>0.0505</v>
       </c>
       <c r="I3" t="n">
         <v>0.07005903368319905</v>
@@ -30564,13 +30564,13 @@
         <v>0.8998980615702878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0298</v>
+        <v>0.0374</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0317</v>
+        <v>0.0418</v>
       </c>
       <c r="I4" t="n">
         <v>0.2080682838047627</v>
@@ -30642,13 +30642,13 @@
         <v>0.8498470923571031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0395</v>
+        <v>0.051</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0465</v>
+        <v>0.0582</v>
       </c>
       <c r="I5" t="n">
         <v>0.2621413233220434</v>
@@ -30720,13 +30720,13 @@
         <v>0.7997961231422471</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0395</v>
+        <v>0.0483</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0456</v>
+        <v>0.0638</v>
       </c>
       <c r="I6" t="n">
         <v>0.1960464205264072</v>
@@ -30798,13 +30798,13 @@
         <v>0.7497451539273912</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0387</v>
+        <v>0.045</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0427</v>
+        <v>0.0513</v>
       </c>
       <c r="I7" t="n">
         <v>0.1388527364656809</v>
@@ -30876,13 +30876,13 @@
         <v>0.7002458244353792</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0376</v>
+        <v>0.0408</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0416</v>
+        <v>0.0457</v>
       </c>
       <c r="I8" t="n">
         <v>0.02605714451222213</v>
@@ -30954,13 +30954,13 @@
         <v>0.6501948552202909</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0428</v>
+        <v>0.0489</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0483</v>
+        <v>0.0551</v>
       </c>
       <c r="I9" t="n">
         <v>-0.02581400465397753</v>
@@ -31032,13 +31032,13 @@
         <v>0.6001438860067538</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.045</v>
+        <v>0.0513</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0554</v>
+        <v>0.0584</v>
       </c>
       <c r="I10" t="n">
         <v>-0.04794051331772606</v>
@@ -31110,13 +31110,13 @@
         <v>0.5500929167919241</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0469</v>
+        <v>0.0578</v>
       </c>
       <c r="H11" t="n">
-        <v>0.057</v>
+        <v>0.065</v>
       </c>
       <c r="I11" t="n">
         <v>-0.10323786913014</v>
@@ -31188,13 +31188,13 @@
         <v>0.5000419475783873</v>
       </c>
       <c r="F12" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0414</v>
+        <v>0.0538</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0484</v>
+        <v>0.0617</v>
       </c>
       <c r="I12" t="n">
         <v>-0.08314809610987199</v>
@@ -31266,13 +31266,13 @@
         <v>0.4499909783617475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0249</v>
+        <v>0.0319</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0302</v>
+        <v>0.0355</v>
       </c>
       <c r="I13" t="n">
         <v>-0.06362055936486676</v>
@@ -31344,13 +31344,13 @@
         <v>0.4002240302185004</v>
       </c>
       <c r="F14" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0249</v>
+        <v>0.0297</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0255</v>
+        <v>0.0323</v>
       </c>
       <c r="I14" t="n">
         <v>-0.08548653819830922</v>
@@ -31422,13 +31422,13 @@
         <v>0.3501730610038636</v>
       </c>
       <c r="F15" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0249</v>
+        <v>0.0299</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0302</v>
+        <v>0.0315</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1170450451316918</v>
@@ -31500,13 +31500,13 @@
         <v>0.3001220917892269</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0297</v>
+        <v>0.035</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0305</v>
+        <v>0.0406</v>
       </c>
       <c r="I16" t="n">
         <v>-0.00805910190222113</v>
@@ -31578,13 +31578,13 @@
         <v>0.2501559042595133</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0341</v>
+        <v>0.0374</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0359</v>
+        <v>0.0407</v>
       </c>
       <c r="I17" t="n">
         <v>-0.01394253540857559</v>
@@ -31656,13 +31656,13 @@
         <v>0.200104935044799</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0287</v>
+        <v>0.0392</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0304</v>
+        <v>0.0418</v>
       </c>
       <c r="I18" t="n">
         <v>-0.05102393742947051</v>
@@ -31740,7 +31740,7 @@
         <v>0.0249</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0303</v>
+        <v>0.0321</v>
       </c>
       <c r="I19" t="n">
         <v>-0.1116600062757682</v>
@@ -31818,7 +31818,7 @@
         <v>0.0295</v>
       </c>
       <c r="H20" t="n">
-        <v>0.031</v>
+        <v>0.0363</v>
       </c>
       <c r="I20" t="n">
         <v>-0.1855215877149541</v>
@@ -31890,13 +31890,13 @@
         <v>0.05005096921415502</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0297</v>
+        <v>0.0324</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0308</v>
+        <v>0.0423</v>
       </c>
       <c r="I21" t="n">
         <v>-0.1627614426115803</v>
@@ -31968,13 +31968,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0298</v>
+        <v>0.0284</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0357</v>
+        <v>0.0346</v>
       </c>
       <c r="I22" t="n">
         <v>-0.1641388461986301</v>
